--- a/inst/extdata/RP_neg_sample.xlsx
+++ b/inst/extdata/RP_neg_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2531B1E-E428-464D-8CA0-0E515C7423D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD2F55-64EC-4EC1-8222-B5C392523622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="314">
   <si>
     <t>Class</t>
   </si>
@@ -40,9 +40,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>HE-HA</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -764,12 +761,6 @@
   </si>
   <si>
     <t>180103SR_Saliva_RP_neg_221</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_222</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_223</t>
   </si>
   <si>
     <t>180103SR_Saliva_RP_neg_224</t>
@@ -1812,15 +1803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IJ3148"/>
+  <dimension ref="A1:IH3148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
         <v>0</v>
       </c>
@@ -2476,10 +2467,10 @@
         <v>5</v>
       </c>
       <c r="IE1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IF1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IG1" t="s">
         <v>1</v>
@@ -2487,673 +2478,667 @@
       <c r="IH1" t="s">
         <v>1</v>
       </c>
-      <c r="II1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="s">
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="s">
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI2" t="s">
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV2" t="s">
         <v>1</v>
       </c>
       <c r="BW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI2" t="s">
         <v>1</v>
       </c>
       <c r="CJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV2" t="s">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DI2" t="s">
         <v>1</v>
       </c>
       <c r="DJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DV2" t="s">
         <v>1</v>
       </c>
       <c r="DW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ED2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EI2" t="s">
         <v>1</v>
       </c>
       <c r="EJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ER2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ES2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EV2" t="s">
         <v>1</v>
       </c>
       <c r="EW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FI2" t="s">
         <v>1</v>
       </c>
       <c r="FJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FV2" t="s">
         <v>1</v>
       </c>
       <c r="FW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GI2" t="s">
         <v>1</v>
       </c>
       <c r="GJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GV2" t="s">
         <v>1</v>
       </c>
       <c r="GW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HD2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HE2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HF2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HG2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HH2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HI2" t="s">
         <v>1</v>
       </c>
       <c r="HJ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HK2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HL2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HM2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HN2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HO2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HP2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HQ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HR2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HS2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HT2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HU2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HV2" t="s">
         <v>1</v>
       </c>
       <c r="HW2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HX2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HY2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HZ2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IA2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IB2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IC2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ID2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="IE2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IF2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="IG2" t="s">
         <v>1</v>
@@ -3161,16 +3146,10 @@
       <c r="IH2" t="s">
         <v>1</v>
       </c>
-      <c r="II2" t="s">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -3824,759 +3803,747 @@
         <v>217</v>
       </c>
       <c r="IE3">
+        <v>220</v>
+      </c>
+      <c r="IF3">
+        <v>221</v>
+      </c>
+      <c r="IG3">
+        <v>222</v>
+      </c>
+      <c r="IH3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:242" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>124</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>125</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>130</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>136</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>140</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>141</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>142</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>146</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>154</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>157</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>160</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>161</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>165</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>166</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>168</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>171</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>173</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>183</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>185</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>186</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>188</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>189</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>191</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>192</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>194</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>195</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>197</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>198</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>199</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>200</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>201</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>202</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>204</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>205</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>206</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>207</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>208</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>209</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>210</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>212</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>213</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>214</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>215</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>216</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>217</v>
+      </c>
+      <c r="HB4" t="s">
         <v>218</v>
       </c>
-      <c r="IF3">
+      <c r="HC4" t="s">
         <v>219</v>
       </c>
-      <c r="IG3">
+      <c r="HD4" t="s">
         <v>220</v>
       </c>
-      <c r="IH3">
+      <c r="HE4" t="s">
         <v>221</v>
       </c>
-      <c r="II3">
+      <c r="HF4" t="s">
         <v>222</v>
       </c>
-      <c r="IJ3">
+      <c r="HG4" t="s">
         <v>223</v>
       </c>
+      <c r="HH4" t="s">
+        <v>224</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>225</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>226</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>227</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>228</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>229</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>230</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>231</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>232</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>234</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>235</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>236</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>237</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>238</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>239</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>240</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>241</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>243</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>244</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>245</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>246</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>248</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>249</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>114</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>115</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>121</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>123</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>136</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>137</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>140</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>141</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>142</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>145</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>150</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>154</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>155</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>157</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>158</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>161</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>162</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>167</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>168</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>169</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>173</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>177</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>180</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>181</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>183</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>185</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>186</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>187</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>188</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>189</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>190</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>191</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>192</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>193</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>194</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>195</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>196</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>197</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>198</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>199</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>200</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>201</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>202</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>203</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>204</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>205</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>206</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>207</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>208</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>209</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>210</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>211</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>212</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>213</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>214</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>215</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>216</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>217</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>218</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>219</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>220</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>221</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>222</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>223</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>224</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>225</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>226</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>227</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>228</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>229</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>230</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>231</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>232</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>233</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>234</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>235</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>236</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>237</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>238</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>239</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>240</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>241</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>242</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>243</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>244</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>245</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>246</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>247</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>248</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>249</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>250</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>251</v>
-      </c>
-      <c r="II4" t="s">
-        <v>252</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4587,10 +4554,10 @@
         <v>61.988</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5">
         <v>0.52017939999999996</v>
@@ -4599,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4623,10 +4590,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V5">
         <v>72584.33</v>
@@ -5280,25 +5247,19 @@
         <v>50427.199999999997</v>
       </c>
       <c r="IE5">
-        <v>43329.69</v>
+        <v>41341.49</v>
       </c>
       <c r="IF5">
-        <v>47143.79</v>
+        <v>36576.93</v>
       </c>
       <c r="IG5">
-        <v>41341.49</v>
+        <v>36856.07</v>
       </c>
       <c r="IH5">
-        <v>36576.93</v>
-      </c>
-      <c r="II5">
-        <v>36856.07</v>
-      </c>
-      <c r="IJ5">
         <v>33860.129999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5309,10 +5270,10 @@
         <v>68.995400000000004</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5321,16 +5282,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5348,10 +5309,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V6">
         <v>48366.68</v>
@@ -6005,25 +5966,19 @@
         <v>38301.72</v>
       </c>
       <c r="IE6">
-        <v>37310.839999999997</v>
+        <v>26756.27</v>
       </c>
       <c r="IF6">
-        <v>17528.12</v>
+        <v>10324.16</v>
       </c>
       <c r="IG6">
-        <v>26756.27</v>
+        <v>20296.13</v>
       </c>
       <c r="IH6">
-        <v>10324.16</v>
-      </c>
-      <c r="II6">
-        <v>20296.13</v>
-      </c>
-      <c r="IJ6">
         <v>27300.17</v>
       </c>
     </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6034,10 +5989,10 @@
         <v>68.995400000000004</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7">
         <v>0.62780270000000005</v>
@@ -6046,16 +6001,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6073,10 +6028,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V7">
         <v>52747.79</v>
@@ -6730,25 +6685,19 @@
         <v>37439.800000000003</v>
       </c>
       <c r="IE7">
-        <v>41169.279999999999</v>
+        <v>40945.410000000003</v>
       </c>
       <c r="IF7">
-        <v>33562.21</v>
+        <v>25250.94</v>
       </c>
       <c r="IG7">
-        <v>40945.410000000003</v>
+        <v>22056.1</v>
       </c>
       <c r="IH7">
-        <v>25250.94</v>
-      </c>
-      <c r="II7">
-        <v>22056.1</v>
-      </c>
-      <c r="IJ7">
         <v>25265.47</v>
       </c>
     </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6759,10 +6708,10 @@
         <v>73.0291</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8">
         <v>0.56053810000000004</v>
@@ -6771,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6795,10 +6744,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="V8">
         <v>9517.4500000000007</v>
@@ -7452,25 +7401,19 @@
         <v>7852.6329999999998</v>
       </c>
       <c r="IE8">
-        <v>8175.6509999999998</v>
+        <v>9890.56</v>
       </c>
       <c r="IF8">
-        <v>9690.2900000000009</v>
+        <v>7282.0190000000002</v>
       </c>
       <c r="IG8">
-        <v>9890.56</v>
+        <v>5249.53</v>
       </c>
       <c r="IH8">
-        <v>7282.0190000000002</v>
-      </c>
-      <c r="II8">
-        <v>5249.53</v>
-      </c>
-      <c r="IJ8">
         <v>5164.835</v>
       </c>
     </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7481,10 +7424,10 @@
         <v>73.970100000000002</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G9">
         <v>0.43946190000000002</v>
@@ -7493,16 +7436,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7520,13 +7463,13 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="V9">
         <v>289218.8</v>
@@ -8180,25 +8123,19 @@
         <v>98658.02</v>
       </c>
       <c r="IE9">
-        <v>201122</v>
+        <v>31284.28</v>
       </c>
       <c r="IF9">
-        <v>230240.5</v>
+        <v>100159.2</v>
       </c>
       <c r="IG9">
-        <v>31284.28</v>
+        <v>219001</v>
       </c>
       <c r="IH9">
-        <v>100159.2</v>
-      </c>
-      <c r="II9">
-        <v>219001</v>
-      </c>
-      <c r="IJ9">
         <v>111675.2</v>
       </c>
     </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8209,13 +8146,13 @@
         <v>78.958799999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G10">
         <v>0.39910309999999999</v>
@@ -8224,16 +8161,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8251,10 +8188,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="V10">
         <v>149194.29999999999</v>
@@ -8908,25 +8845,19 @@
         <v>163830.79999999999</v>
       </c>
       <c r="IE10">
-        <v>147113</v>
+        <v>66710.929999999993</v>
       </c>
       <c r="IF10">
-        <v>146468.4</v>
+        <v>18381.560000000001</v>
       </c>
       <c r="IG10">
-        <v>66710.929999999993</v>
+        <v>75817.100000000006</v>
       </c>
       <c r="IH10">
-        <v>18381.560000000001</v>
-      </c>
-      <c r="II10">
-        <v>75817.100000000006</v>
-      </c>
-      <c r="IJ10">
         <v>16514.09</v>
       </c>
     </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8937,13 +8868,13 @@
         <v>78.958799999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G11">
         <v>0.52466369999999996</v>
@@ -8952,16 +8883,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8979,13 +8910,13 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="U11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="V11">
         <v>288556.59999999998</v>
@@ -9639,25 +9570,19 @@
         <v>134697.5</v>
       </c>
       <c r="IE11">
-        <v>183209.60000000001</v>
+        <v>181369.1</v>
       </c>
       <c r="IF11">
-        <v>190374.1</v>
+        <v>161617.20000000001</v>
       </c>
       <c r="IG11">
-        <v>181369.1</v>
+        <v>175896.4</v>
       </c>
       <c r="IH11">
-        <v>161617.20000000001</v>
-      </c>
-      <c r="II11">
-        <v>175896.4</v>
-      </c>
-      <c r="IJ11">
         <v>158106.9</v>
       </c>
     </row>
-    <row r="12" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9668,10 +9593,10 @@
         <v>89.024199999999993</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12">
         <v>0.73094170000000003</v>
@@ -9680,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9698,10 +9623,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V12">
         <v>108756.6</v>
@@ -10355,25 +10280,19 @@
         <v>423920.8</v>
       </c>
       <c r="IE12">
-        <v>221256.6</v>
+        <v>428879.1</v>
       </c>
       <c r="IF12">
-        <v>457931.5</v>
+        <v>279286</v>
       </c>
       <c r="IG12">
-        <v>428879.1</v>
+        <v>181181.2</v>
       </c>
       <c r="IH12">
-        <v>279286</v>
-      </c>
-      <c r="II12">
-        <v>181181.2</v>
-      </c>
-      <c r="IJ12">
         <v>436644.3</v>
       </c>
     </row>
-    <row r="13" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -10384,10 +10303,10 @@
         <v>94.987200000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G13">
         <v>0.98654710000000001</v>
@@ -10396,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10420,10 +10339,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V13">
         <v>470330.7</v>
@@ -11077,25 +10996,19 @@
         <v>274101.8</v>
       </c>
       <c r="IE13">
-        <v>445800.7</v>
+        <v>320561.2</v>
       </c>
       <c r="IF13">
-        <v>513790.4</v>
+        <v>249271.8</v>
       </c>
       <c r="IG13">
-        <v>320561.2</v>
+        <v>656970.80000000005</v>
       </c>
       <c r="IH13">
-        <v>249271.8</v>
-      </c>
-      <c r="II13">
-        <v>656970.80000000005</v>
-      </c>
-      <c r="IJ13">
         <v>503479</v>
       </c>
     </row>
-    <row r="14" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11106,10 +11019,10 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G14">
         <v>0.73991030000000002</v>
@@ -11118,13 +11031,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11142,10 +11055,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V14">
         <v>811237.8</v>
@@ -11799,25 +11712,19 @@
         <v>389780.9</v>
       </c>
       <c r="IE14">
-        <v>583683.9</v>
+        <v>483670.4</v>
       </c>
       <c r="IF14">
-        <v>593282.80000000005</v>
+        <v>261255.8</v>
       </c>
       <c r="IG14">
-        <v>483670.4</v>
+        <v>261308.3</v>
       </c>
       <c r="IH14">
-        <v>261255.8</v>
-      </c>
-      <c r="II14">
-        <v>261308.3</v>
-      </c>
-      <c r="IJ14">
         <v>280106.3</v>
       </c>
     </row>
-    <row r="15" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11828,10 +11735,10 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G15">
         <v>0.95515689999999998</v>
@@ -11840,13 +11747,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11864,13 +11771,13 @@
         <v>1000</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="V15">
         <v>1553112</v>
@@ -12524,25 +12431,19 @@
         <v>426865.5</v>
       </c>
       <c r="IE15">
-        <v>962724.3</v>
+        <v>790340.8</v>
       </c>
       <c r="IF15">
-        <v>744616.8</v>
+        <v>476409.59999999998</v>
       </c>
       <c r="IG15">
-        <v>790340.8</v>
+        <v>408492.79999999999</v>
       </c>
       <c r="IH15">
-        <v>476409.59999999998</v>
-      </c>
-      <c r="II15">
-        <v>408492.79999999999</v>
-      </c>
-      <c r="IJ15">
         <v>406946.5</v>
       </c>
     </row>
-    <row r="16" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12553,10 +12454,10 @@
         <v>96.968599999999995</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16">
         <v>0.47982059999999999</v>
@@ -12565,16 +12466,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12592,10 +12493,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="V16">
         <v>37773.879999999997</v>
@@ -13249,25 +13150,19 @@
         <v>36154.559999999998</v>
       </c>
       <c r="IE16">
-        <v>21031.45</v>
+        <v>58783.69</v>
       </c>
       <c r="IF16">
-        <v>23759.39</v>
+        <v>22312.48</v>
       </c>
       <c r="IG16">
-        <v>58783.69</v>
+        <v>7356.6419999999998</v>
       </c>
       <c r="IH16">
-        <v>22312.48</v>
-      </c>
-      <c r="II16">
-        <v>7356.6419999999998</v>
-      </c>
-      <c r="IJ16">
         <v>16961.3</v>
       </c>
     </row>
-    <row r="17" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -13278,10 +13173,10 @@
         <v>96.969099999999997</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G17">
         <v>0.88340810000000003</v>
@@ -13290,16 +13185,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13317,10 +13212,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V17">
         <v>17555.810000000001</v>
@@ -13974,25 +13869,19 @@
         <v>11871.44</v>
       </c>
       <c r="IE17">
-        <v>10133.74</v>
+        <v>9650.4030000000002</v>
       </c>
       <c r="IF17">
-        <v>10841.32</v>
+        <v>4998.799</v>
       </c>
       <c r="IG17">
-        <v>9650.4030000000002</v>
+        <v>7514.3220000000001</v>
       </c>
       <c r="IH17">
-        <v>4998.799</v>
-      </c>
-      <c r="II17">
-        <v>7514.3220000000001</v>
-      </c>
-      <c r="IJ17">
         <v>5983.6409999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -14003,10 +13892,10 @@
         <v>98.951400000000007</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -14015,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -14039,10 +13928,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="V18">
         <v>32472.5</v>
@@ -14696,25 +14585,19 @@
         <v>22637.9</v>
       </c>
       <c r="IE18">
-        <v>17088</v>
+        <v>22989.97</v>
       </c>
       <c r="IF18">
-        <v>20311.560000000001</v>
+        <v>4815.701</v>
       </c>
       <c r="IG18">
-        <v>22989.97</v>
+        <v>15368.45</v>
       </c>
       <c r="IH18">
-        <v>4815.701</v>
-      </c>
-      <c r="II18">
-        <v>15368.45</v>
-      </c>
-      <c r="IJ18">
         <v>12933.77</v>
       </c>
     </row>
-    <row r="19" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14725,10 +14608,10 @@
         <v>98.957499999999996</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G19">
         <v>0.53363229999999995</v>
@@ -14737,16 +14620,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14764,10 +14647,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V19">
         <v>44646.37</v>
@@ -15421,25 +15304,19 @@
         <v>41957.2</v>
       </c>
       <c r="IE19">
-        <v>36585.96</v>
+        <v>35670.629999999997</v>
       </c>
       <c r="IF19">
-        <v>38321.58</v>
+        <v>21265.66</v>
       </c>
       <c r="IG19">
-        <v>35670.629999999997</v>
+        <v>24110.94</v>
       </c>
       <c r="IH19">
-        <v>21265.66</v>
-      </c>
-      <c r="II19">
-        <v>24110.94</v>
-      </c>
-      <c r="IJ19">
         <v>25314.639999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -15450,10 +15327,10 @@
         <v>99.008099999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20">
         <v>0.3049327</v>
@@ -15462,13 +15339,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15486,10 +15363,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V20">
         <v>29284.44</v>
@@ -16143,25 +16020,19 @@
         <v>33732.400000000001</v>
       </c>
       <c r="IE20">
-        <v>47765.61</v>
+        <v>33514.85</v>
       </c>
       <c r="IF20">
-        <v>46832.52</v>
+        <v>42106.31</v>
       </c>
       <c r="IG20">
-        <v>33514.85</v>
+        <v>34127.43</v>
       </c>
       <c r="IH20">
-        <v>42106.31</v>
-      </c>
-      <c r="II20">
-        <v>34127.43</v>
-      </c>
-      <c r="IJ20">
         <v>27666.2</v>
       </c>
     </row>
-    <row r="21" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16172,10 +16043,10 @@
         <v>99.9255</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G21">
         <v>0.78923770000000004</v>
@@ -16184,16 +16055,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16211,10 +16082,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V21">
         <v>105994.9</v>
@@ -16868,25 +16739,19 @@
         <v>56128.34</v>
       </c>
       <c r="IE21">
-        <v>82732.759999999995</v>
+        <v>102546.5</v>
       </c>
       <c r="IF21">
-        <v>141340</v>
+        <v>48819.02</v>
       </c>
       <c r="IG21">
-        <v>102546.5</v>
+        <v>49443.32</v>
       </c>
       <c r="IH21">
-        <v>48819.02</v>
-      </c>
-      <c r="II21">
-        <v>49443.32</v>
-      </c>
-      <c r="IJ21">
         <v>58018.61</v>
       </c>
     </row>
-    <row r="22" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16897,10 +16762,10 @@
         <v>100.93340000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G22">
         <v>0.73094170000000003</v>
@@ -16909,16 +16774,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16936,10 +16801,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V22">
         <v>45035.78</v>
@@ -17593,25 +17458,19 @@
         <v>53137.74</v>
       </c>
       <c r="IE22">
-        <v>49880.38</v>
+        <v>36730.89</v>
       </c>
       <c r="IF22">
-        <v>51763.93</v>
+        <v>24425.05</v>
       </c>
       <c r="IG22">
-        <v>36730.89</v>
+        <v>37604.86</v>
       </c>
       <c r="IH22">
-        <v>24425.05</v>
-      </c>
-      <c r="II22">
-        <v>37604.86</v>
-      </c>
-      <c r="IJ22">
         <v>32339.46</v>
       </c>
     </row>
-    <row r="23" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -17622,13 +17481,13 @@
         <v>100.93340000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G23">
         <v>0.43049330000000002</v>
@@ -17637,16 +17496,16 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17664,13 +17523,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V23">
         <v>340617.8</v>
@@ -18324,25 +18183,19 @@
         <v>237532.79999999999</v>
       </c>
       <c r="IE23">
-        <v>191221.1</v>
+        <v>232853.7</v>
       </c>
       <c r="IF23">
-        <v>199313.1</v>
+        <v>111594.2</v>
       </c>
       <c r="IG23">
-        <v>232853.7</v>
+        <v>171571.6</v>
       </c>
       <c r="IH23">
-        <v>111594.2</v>
-      </c>
-      <c r="II23">
-        <v>171571.6</v>
-      </c>
-      <c r="IJ23">
         <v>122512.3</v>
       </c>
     </row>
-    <row r="24" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -18353,10 +18206,10 @@
         <v>100.9346</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -18365,16 +18218,16 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18392,16 +18245,16 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -18412,10 +18265,10 @@
         <v>102.9355</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G25">
         <v>0.8475336</v>
@@ -18424,16 +18277,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -18451,10 +18304,10 @@
         <v>-1</v>
       </c>
       <c r="S25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V25">
         <v>14987.76</v>
@@ -19108,35 +18961,29 @@
         <v>20505.5</v>
       </c>
       <c r="IE25">
-        <v>21582.34</v>
+        <v>24102.13</v>
       </c>
       <c r="IF25">
-        <v>27764.04</v>
+        <v>22250.97</v>
       </c>
       <c r="IG25">
-        <v>24102.13</v>
+        <v>6798.0309999999999</v>
       </c>
       <c r="IH25">
-        <v>22250.97</v>
-      </c>
-      <c r="II25">
-        <v>6798.0309999999999</v>
-      </c>
-      <c r="IJ25">
         <v>24050.639999999999</v>
       </c>
     </row>
-    <row r="40" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA40" s="1"/>
     </row>
-    <row r="161" spans="187:187" x14ac:dyDescent="0.25">
+    <row r="161" spans="187:187" x14ac:dyDescent="0.3">
       <c r="GE161" s="1"/>
     </row>
-    <row r="183" spans="112:145" x14ac:dyDescent="0.25">
+    <row r="183" spans="112:145" x14ac:dyDescent="0.3">
       <c r="DH183" s="1"/>
       <c r="EO183" s="1"/>
     </row>
-    <row r="202" spans="27:236" x14ac:dyDescent="0.25">
+    <row r="202" spans="27:236" x14ac:dyDescent="0.3">
       <c r="AA202" s="1"/>
       <c r="AC202" s="1"/>
       <c r="AT202" s="1"/>
@@ -19145,7 +18992,7 @@
       <c r="HZ202" s="1"/>
       <c r="IB202" s="1"/>
     </row>
-    <row r="376" spans="30:240" x14ac:dyDescent="0.25">
+    <row r="376" spans="30:238" x14ac:dyDescent="0.3">
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
       <c r="AF376" s="1"/>
@@ -19319,10 +19166,8 @@
       <c r="IB376" s="1"/>
       <c r="IC376" s="1"/>
       <c r="ID376" s="1"/>
-      <c r="IE376" s="1"/>
-      <c r="IF376" s="1"/>
     </row>
-    <row r="410" spans="112:244" x14ac:dyDescent="0.25">
+    <row r="410" spans="112:242" x14ac:dyDescent="0.3">
       <c r="DH410" s="1"/>
       <c r="EO410" s="1"/>
       <c r="ET410" s="1"/>
@@ -19350,14 +19195,12 @@
       <c r="IF410" s="1"/>
       <c r="IG410" s="1"/>
       <c r="IH410" s="1"/>
-      <c r="II410" s="1"/>
-      <c r="IJ410" s="1"/>
     </row>
-    <row r="411" spans="112:244" x14ac:dyDescent="0.25">
+    <row r="411" spans="112:242" x14ac:dyDescent="0.3">
       <c r="DH411" s="1"/>
       <c r="HC411" s="1"/>
     </row>
-    <row r="427" spans="33:233" x14ac:dyDescent="0.25">
+    <row r="427" spans="33:233" x14ac:dyDescent="0.3">
       <c r="AG427" s="1"/>
       <c r="CJ427" s="1"/>
       <c r="CO427" s="1"/>
@@ -19365,13 +19208,13 @@
       <c r="HR427" s="1"/>
       <c r="HY427" s="1"/>
     </row>
-    <row r="456" spans="226:226" x14ac:dyDescent="0.25">
+    <row r="456" spans="226:226" x14ac:dyDescent="0.3">
       <c r="HR456" s="1"/>
     </row>
-    <row r="460" spans="226:226" x14ac:dyDescent="0.25">
+    <row r="460" spans="226:226" x14ac:dyDescent="0.3">
       <c r="HR460" s="1"/>
     </row>
-    <row r="468" spans="22:244" x14ac:dyDescent="0.25">
+    <row r="468" spans="22:242" x14ac:dyDescent="0.3">
       <c r="V468" s="1"/>
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
@@ -19589,51 +19432,48 @@
       <c r="IF468" s="1"/>
       <c r="IG468" s="1"/>
       <c r="IH468" s="1"/>
-      <c r="II468" s="1"/>
-      <c r="IJ468" s="1"/>
     </row>
-    <row r="494" spans="192:212" x14ac:dyDescent="0.25">
+    <row r="494" spans="192:212" x14ac:dyDescent="0.3">
       <c r="GJ494" s="1"/>
       <c r="GN494" s="1"/>
       <c r="GW494" s="1"/>
       <c r="HD494" s="1"/>
     </row>
-    <row r="507" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="507" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD507" s="1"/>
     </row>
-    <row r="610" spans="45:59" x14ac:dyDescent="0.25">
+    <row r="610" spans="45:59" x14ac:dyDescent="0.3">
       <c r="AS610" s="1"/>
       <c r="AT610" s="1"/>
       <c r="BG610" s="1"/>
     </row>
-    <row r="645" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="645" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="646" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA646" s="1"/>
     </row>
-    <row r="737" spans="147:152" x14ac:dyDescent="0.25">
+    <row r="737" spans="147:152" x14ac:dyDescent="0.3">
       <c r="EQ737" s="1"/>
       <c r="EV737" s="1"/>
     </row>
-    <row r="1074" spans="218:218" x14ac:dyDescent="0.25">
+    <row r="1074" spans="218:218" x14ac:dyDescent="0.3">
       <c r="HJ1074" s="1"/>
     </row>
-    <row r="1075" spans="218:218" x14ac:dyDescent="0.25">
+    <row r="1075" spans="218:218" x14ac:dyDescent="0.3">
       <c r="HJ1075" s="1"/>
     </row>
-    <row r="1252" spans="39:244" x14ac:dyDescent="0.25">
+    <row r="1252" spans="39:242" x14ac:dyDescent="0.3">
       <c r="AM1252" s="1"/>
       <c r="AR1252" s="1"/>
       <c r="AU1252" s="1"/>
       <c r="AV1252" s="1"/>
       <c r="HY1252" s="1"/>
       <c r="IA1252" s="1"/>
-      <c r="IE1252" s="1"/>
+      <c r="IF1252" s="1"/>
       <c r="IH1252" s="1"/>
-      <c r="IJ1252" s="1"/>
     </row>
-    <row r="1253" spans="39:244" x14ac:dyDescent="0.25">
+    <row r="1253" spans="39:242" x14ac:dyDescent="0.3">
       <c r="CK1253" s="1"/>
       <c r="CN1253" s="1"/>
       <c r="CP1253" s="1"/>
@@ -19661,7 +19501,7 @@
       <c r="DS1253" s="1"/>
       <c r="EC1253" s="1"/>
     </row>
-    <row r="1256" spans="39:244" x14ac:dyDescent="0.25">
+    <row r="1256" spans="39:242" x14ac:dyDescent="0.3">
       <c r="CC1256" s="1"/>
       <c r="CG1256" s="1"/>
       <c r="CI1256" s="1"/>
@@ -19669,13 +19509,13 @@
       <c r="CN1256" s="1"/>
       <c r="CT1256" s="1"/>
     </row>
-    <row r="1297" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="1297" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA1297" s="1"/>
     </row>
-    <row r="1493" spans="129:129" x14ac:dyDescent="0.25">
+    <row r="1493" spans="129:129" x14ac:dyDescent="0.3">
       <c r="DY1493" s="1"/>
     </row>
-    <row r="1557" spans="27:226" x14ac:dyDescent="0.25">
+    <row r="1557" spans="27:226" x14ac:dyDescent="0.3">
       <c r="AA1557" s="1"/>
       <c r="AC1557" s="1"/>
       <c r="AJ1557" s="1"/>
@@ -19686,26 +19526,26 @@
       <c r="GE1557" s="1"/>
       <c r="HR1557" s="1"/>
     </row>
-    <row r="1659" spans="27:187" x14ac:dyDescent="0.25">
+    <row r="1659" spans="27:187" x14ac:dyDescent="0.3">
       <c r="AA1659" s="1"/>
       <c r="AC1659" s="1"/>
       <c r="BG1659" s="1"/>
       <c r="GE1659" s="1"/>
     </row>
-    <row r="1674" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="1674" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA1674" s="1"/>
     </row>
-    <row r="1766" spans="31:50" x14ac:dyDescent="0.25">
+    <row r="1766" spans="31:50" x14ac:dyDescent="0.3">
       <c r="AE1766" s="1"/>
       <c r="AX1766" s="1"/>
     </row>
-    <row r="1865" spans="149:149" x14ac:dyDescent="0.25">
+    <row r="1865" spans="149:149" x14ac:dyDescent="0.3">
       <c r="ES1865" s="1"/>
     </row>
-    <row r="1879" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="1879" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD1879" s="1"/>
     </row>
-    <row r="1995" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="1995" spans="22:32" x14ac:dyDescent="0.3">
       <c r="V1995" s="1"/>
       <c r="W1995" s="1"/>
       <c r="X1995" s="1"/>
@@ -19714,10 +19554,10 @@
       <c r="AE1995" s="1"/>
       <c r="AF1995" s="1"/>
     </row>
-    <row r="2308" spans="129:129" x14ac:dyDescent="0.25">
+    <row r="2308" spans="129:129" x14ac:dyDescent="0.3">
       <c r="DY2308" s="1"/>
     </row>
-    <row r="2387" spans="22:225" x14ac:dyDescent="0.25">
+    <row r="2387" spans="22:225" x14ac:dyDescent="0.3">
       <c r="V2387" s="1"/>
       <c r="Z2387" s="1"/>
       <c r="AA2387" s="1"/>
@@ -19757,7 +19597,7 @@
       <c r="HN2387" s="1"/>
       <c r="HQ2387" s="1"/>
     </row>
-    <row r="2424" spans="36:101" x14ac:dyDescent="0.25">
+    <row r="2424" spans="36:101" x14ac:dyDescent="0.3">
       <c r="AJ2424" s="1"/>
       <c r="AR2424" s="1"/>
       <c r="BB2424" s="1"/>
@@ -19766,7 +19606,7 @@
       <c r="CQ2424" s="1"/>
       <c r="CW2424" s="1"/>
     </row>
-    <row r="2425" spans="36:101" x14ac:dyDescent="0.25">
+    <row r="2425" spans="36:101" x14ac:dyDescent="0.3">
       <c r="AJ2425" s="1"/>
       <c r="AR2425" s="1"/>
       <c r="BO2425" s="1"/>
@@ -19774,10 +19614,10 @@
       <c r="CQ2425" s="1"/>
       <c r="CW2425" s="1"/>
     </row>
-    <row r="2493" spans="50:50" x14ac:dyDescent="0.25">
+    <row r="2493" spans="50:50" x14ac:dyDescent="0.3">
       <c r="AX2493" s="1"/>
     </row>
-    <row r="2637" spans="36:222" x14ac:dyDescent="0.25">
+    <row r="2637" spans="36:222" x14ac:dyDescent="0.3">
       <c r="AJ2637" s="1"/>
       <c r="AS2637" s="1"/>
       <c r="BF2637" s="1"/>
@@ -19793,7 +19633,7 @@
       <c r="GS2637" s="1"/>
       <c r="GY2637" s="1"/>
     </row>
-    <row r="2640" spans="36:222" x14ac:dyDescent="0.25">
+    <row r="2640" spans="36:222" x14ac:dyDescent="0.3">
       <c r="AJ2640" s="1"/>
       <c r="AR2640" s="1"/>
       <c r="AS2640" s="1"/>
@@ -19816,10 +19656,10 @@
       <c r="GS2640" s="1"/>
       <c r="HN2640" s="1"/>
     </row>
-    <row r="2697" spans="59:59" x14ac:dyDescent="0.25">
+    <row r="2697" spans="59:59" x14ac:dyDescent="0.3">
       <c r="BG2697" s="1"/>
     </row>
-    <row r="2714" spans="50:201" x14ac:dyDescent="0.25">
+    <row r="2714" spans="50:201" x14ac:dyDescent="0.3">
       <c r="BF2714" s="1"/>
       <c r="BM2714" s="1"/>
       <c r="CJ2714" s="1"/>
@@ -19831,13 +19671,13 @@
       <c r="GP2714" s="1"/>
       <c r="GS2714" s="1"/>
     </row>
-    <row r="2719" spans="50:201" x14ac:dyDescent="0.25">
+    <row r="2719" spans="50:201" x14ac:dyDescent="0.3">
       <c r="AX2719" s="1"/>
     </row>
-    <row r="2721" spans="50:201" x14ac:dyDescent="0.25">
+    <row r="2721" spans="50:201" x14ac:dyDescent="0.3">
       <c r="AX2721" s="1"/>
     </row>
-    <row r="2727" spans="50:201" x14ac:dyDescent="0.25">
+    <row r="2727" spans="50:201" x14ac:dyDescent="0.3">
       <c r="BF2727" s="1"/>
       <c r="BM2727" s="1"/>
       <c r="CJ2727" s="1"/>
@@ -19846,7 +19686,7 @@
       <c r="GD2727" s="1"/>
       <c r="GS2727" s="1"/>
     </row>
-    <row r="2728" spans="50:201" x14ac:dyDescent="0.25">
+    <row r="2728" spans="50:201" x14ac:dyDescent="0.3">
       <c r="BF2728" s="1"/>
       <c r="BM2728" s="1"/>
       <c r="CJ2728" s="1"/>
@@ -19855,16 +19695,16 @@
       <c r="GD2728" s="1"/>
       <c r="GS2728" s="1"/>
     </row>
-    <row r="2891" spans="50:50" x14ac:dyDescent="0.25">
+    <row r="2891" spans="50:50" x14ac:dyDescent="0.3">
       <c r="AX2891" s="1"/>
     </row>
-    <row r="3134" spans="149:149" x14ac:dyDescent="0.25">
+    <row r="3134" spans="149:149" x14ac:dyDescent="0.3">
       <c r="ES3134" s="1"/>
     </row>
-    <row r="3135" spans="149:149" x14ac:dyDescent="0.25">
+    <row r="3135" spans="149:149" x14ac:dyDescent="0.3">
       <c r="ES3135" s="1"/>
     </row>
-    <row r="3148" spans="27:63" x14ac:dyDescent="0.25">
+    <row r="3148" spans="27:63" x14ac:dyDescent="0.3">
       <c r="AA3148" s="1"/>
       <c r="BG3148" s="1"/>
       <c r="BK3148" s="1"/>
@@ -19875,12 +19715,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20030,15 +19867,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2B8340-481F-41E0-A263-27D4BAD65984}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20062,10 +19903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2B8340-481F-41E0-A263-27D4BAD65984}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/RP_neg_sample.xlsx
+++ b/inst/extdata/RP_neg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD2F55-64EC-4EC1-8222-B5C392523622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35D5BC-160A-4C3C-A324-A3103446D0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="4272" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18552" yWindow="2868" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP neg final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="312">
   <si>
     <t>Class</t>
   </si>
@@ -953,12 +953,6 @@
   </si>
   <si>
     <t>89.922 (100), 36.716 (71), 27.657 (70), 46.402 (59), 80.226 (59), 81.853 (58), 81.37 (55), 84.912 (50), 22.767 (49), 29.27 (49), 45.67 (44), 29.962 (44), 67.84 (43), 48.216 (40), 83.776 (39), 27.905 (32), 74.436 (32), 69.288 (32), 58.727 (30), 40.91 (30), 82.231 (28), 37.642 (27), 84.692 (26), 87.236 (26), 24.544 (22), 35.66 (21), 69.667 (21), 99.491 (20), 52.031 (17), 44.569 (16), 83.098 (14), 87.007 (12), 28.174 (10), 36.311 (9), 81.881 (8), 46.416 (7), 81.386 (6), 22.776 (6), 36.741 (4), 80.265 (4), 40.928 (3), 46.43 (3), 29.302 (3), 27.92 (2), 74.461 (2), 37.677 (2), 89.977 (2), 27.687 (2)</t>
-  </si>
-  <si>
-    <t>100.93464:20711 101.93799:3073 102.94135:1163</t>
-  </si>
-  <si>
-    <t>82.393 (100), 47.397 (96), 66.827 (95), 33.941 (94), 70.852 (93), 50.199 (91), 50.676 (87), 70.348 (81), 83.222 (81), 38.797 (78), 61.457 (75), 43.661 (66), 51.265 (65), 94.108 (65), 38.853 (63), 63.773 (62), 46.23 (60), 26.546 (56), 47.406 (55), 23.238 (52), 50.478 (52), 78.368 (51), 80.607 (47), 41.882 (46), 94.156 (46), 93.84 (46), 55.701 (46), 41.796 (45), 89.007 (44), 85.933 (44), 41.423 (43), 84.948 (43), 50.039 (41), 30.336 (37), 93.999 (36), 69.743 (34), 25.687 (33), 38.719 (32), 49.512 (31), 44.161 (30), 30.563 (28), 66.922 (25), 24.997 (23), 32.691 (21), 27.612 (20), 88.024 (20), 94.407 (19), 25.506 (17), 61.479 (17), 26.279 (17), 41.328 (17), 61.751 (15), 41.145 (13), 36.833 (13), 70.887 (11), 94.129 (10), 47.424 (9), 33.966 (9), 83.247 (8), 51.284 (8), 61.368 (8), 50.697 (7), 49.911 (7), 50.502 (6), 83.26 (6), 66.862 (5), 44.175 (5), 84.979 (5), 82.432 (5), 41.819 (4), 63.798 (4), 38.876 (4), 33.975 (4), 84.971 (4), 43.682 (4), 78.394 (3), 81.569 (3), 50.719 (3), 43.699 (3), 46.25 (3), 57.367 (3), 70.39 (3), 41.441 (2), 46.262 (2), 41.349 (2), 21.038 (2), 50.238 (2), 33.995 (2), 85.968 (2)</t>
   </si>
   <si>
     <t>102.93507:18911 103.93842:0 104.94178:7930</t>
@@ -1803,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IH3148"/>
+  <dimension ref="A1:IH3147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
-      <selection activeCell="IE1" sqref="IE1:IF1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18197,25 +18191,25 @@
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>15.52</v>
+        <v>15.37</v>
       </c>
       <c r="C24">
-        <v>100.9346</v>
+        <v>102.9355</v>
       </c>
       <c r="D24" t="s">
         <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.8475336</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>258</v>
@@ -18245,1439 +18239,1389 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="T24" t="s">
         <v>311</v>
       </c>
-      <c r="U24" t="s">
-        <v>312</v>
+      <c r="V24">
+        <v>14987.76</v>
+      </c>
+      <c r="W24">
+        <v>36568.97</v>
+      </c>
+      <c r="X24">
+        <v>23433.83</v>
+      </c>
+      <c r="Y24">
+        <v>29355.42</v>
+      </c>
+      <c r="Z24">
+        <v>26189.13</v>
+      </c>
+      <c r="AA24">
+        <v>4860.8609999999999</v>
+      </c>
+      <c r="AB24">
+        <v>42219.02</v>
+      </c>
+      <c r="AC24">
+        <v>1975.855</v>
+      </c>
+      <c r="AD24">
+        <v>36019.660000000003</v>
+      </c>
+      <c r="AE24">
+        <v>108125</v>
+      </c>
+      <c r="AF24">
+        <v>47725.34</v>
+      </c>
+      <c r="AG24">
+        <v>23763.64</v>
+      </c>
+      <c r="AH24">
+        <v>28072.5</v>
+      </c>
+      <c r="AI24">
+        <v>19771.96</v>
+      </c>
+      <c r="AJ24">
+        <v>31607.83</v>
+      </c>
+      <c r="AK24">
+        <v>36085.919999999998</v>
+      </c>
+      <c r="AL24">
+        <v>38033.22</v>
+      </c>
+      <c r="AM24">
+        <v>30992.75</v>
+      </c>
+      <c r="AN24">
+        <v>24948.17</v>
+      </c>
+      <c r="AO24">
+        <v>41628.81</v>
+      </c>
+      <c r="AP24">
+        <v>27711.85</v>
+      </c>
+      <c r="AQ24">
+        <v>22196.37</v>
+      </c>
+      <c r="AR24">
+        <v>37407.269999999997</v>
+      </c>
+      <c r="AS24">
+        <v>23183.599999999999</v>
+      </c>
+      <c r="AT24">
+        <v>24311.05</v>
+      </c>
+      <c r="AU24">
+        <v>37321.160000000003</v>
+      </c>
+      <c r="AV24">
+        <v>11977.48</v>
+      </c>
+      <c r="AW24">
+        <v>31376.76</v>
+      </c>
+      <c r="AX24">
+        <v>260885.6</v>
+      </c>
+      <c r="AY24">
+        <v>22223.49</v>
+      </c>
+      <c r="AZ24">
+        <v>84514.22</v>
+      </c>
+      <c r="BA24">
+        <v>22760</v>
+      </c>
+      <c r="BB24">
+        <v>30963.14</v>
+      </c>
+      <c r="BC24">
+        <v>32461.49</v>
+      </c>
+      <c r="BD24">
+        <v>26027.17</v>
+      </c>
+      <c r="BE24">
+        <v>23953.34</v>
+      </c>
+      <c r="BF24">
+        <v>80680.58</v>
+      </c>
+      <c r="BG24">
+        <v>38171</v>
+      </c>
+      <c r="BH24">
+        <v>34161.339999999997</v>
+      </c>
+      <c r="BI24">
+        <v>22493.34</v>
+      </c>
+      <c r="BJ24">
+        <v>23682.81</v>
+      </c>
+      <c r="BK24">
+        <v>33604.49</v>
+      </c>
+      <c r="BL24">
+        <v>1145.5409999999999</v>
+      </c>
+      <c r="BM24">
+        <v>35238.33</v>
+      </c>
+      <c r="BN24">
+        <v>35436.300000000003</v>
+      </c>
+      <c r="BO24">
+        <v>24794.53</v>
+      </c>
+      <c r="BP24">
+        <v>36818.080000000002</v>
+      </c>
+      <c r="BQ24">
+        <v>33106.449999999997</v>
+      </c>
+      <c r="BR24">
+        <v>30412.54</v>
+      </c>
+      <c r="BS24">
+        <v>37080.11</v>
+      </c>
+      <c r="BT24">
+        <v>54852.09</v>
+      </c>
+      <c r="BU24">
+        <v>20357.04</v>
+      </c>
+      <c r="BV24">
+        <v>18829.72</v>
+      </c>
+      <c r="BW24">
+        <v>40606.35</v>
+      </c>
+      <c r="BX24">
+        <v>37960.18</v>
+      </c>
+      <c r="BY24">
+        <v>29696.12</v>
+      </c>
+      <c r="BZ24">
+        <v>17868.91</v>
+      </c>
+      <c r="CA24">
+        <v>36587.910000000003</v>
+      </c>
+      <c r="CB24">
+        <v>31228.67</v>
+      </c>
+      <c r="CC24">
+        <v>37232.65</v>
+      </c>
+      <c r="CD24">
+        <v>20202.810000000001</v>
+      </c>
+      <c r="CE24">
+        <v>20021.32</v>
+      </c>
+      <c r="CF24">
+        <v>27520.65</v>
+      </c>
+      <c r="CG24">
+        <v>53412.58</v>
+      </c>
+      <c r="CH24">
+        <v>24125.11</v>
+      </c>
+      <c r="CI24">
+        <v>19469.810000000001</v>
+      </c>
+      <c r="CJ24">
+        <v>22467.87</v>
+      </c>
+      <c r="CK24">
+        <v>22102.79</v>
+      </c>
+      <c r="CL24">
+        <v>33115.5</v>
+      </c>
+      <c r="CM24">
+        <v>35596.959999999999</v>
+      </c>
+      <c r="CN24">
+        <v>20240.599999999999</v>
+      </c>
+      <c r="CO24">
+        <v>35184.9</v>
+      </c>
+      <c r="CP24">
+        <v>34241.730000000003</v>
+      </c>
+      <c r="CQ24">
+        <v>35000.980000000003</v>
+      </c>
+      <c r="CR24">
+        <v>37447.64</v>
+      </c>
+      <c r="CS24">
+        <v>24846.34</v>
+      </c>
+      <c r="CT24">
+        <v>23411.4</v>
+      </c>
+      <c r="CU24">
+        <v>107605.3</v>
+      </c>
+      <c r="CV24">
+        <v>25202.32</v>
+      </c>
+      <c r="CW24">
+        <v>43916.21</v>
+      </c>
+      <c r="CX24">
+        <v>182341.4</v>
+      </c>
+      <c r="CY24">
+        <v>40136.589999999997</v>
+      </c>
+      <c r="CZ24">
+        <v>108902.7</v>
+      </c>
+      <c r="DA24">
+        <v>20186.53</v>
+      </c>
+      <c r="DB24">
+        <v>21241.79</v>
+      </c>
+      <c r="DC24">
+        <v>21520.97</v>
+      </c>
+      <c r="DD24">
+        <v>32461.88</v>
+      </c>
+      <c r="DE24">
+        <v>32492.95</v>
+      </c>
+      <c r="DF24">
+        <v>41234.01</v>
+      </c>
+      <c r="DG24">
+        <v>23364.46</v>
+      </c>
+      <c r="DH24">
+        <v>25196.53</v>
+      </c>
+      <c r="DI24">
+        <v>23839.16</v>
+      </c>
+      <c r="DJ24">
+        <v>109704.6</v>
+      </c>
+      <c r="DK24">
+        <v>179295.7</v>
+      </c>
+      <c r="DL24">
+        <v>45959.360000000001</v>
+      </c>
+      <c r="DM24">
+        <v>79246.48</v>
+      </c>
+      <c r="DN24">
+        <v>28971.74</v>
+      </c>
+      <c r="DO24">
+        <v>100284.4</v>
+      </c>
+      <c r="DP24">
+        <v>26021.47</v>
+      </c>
+      <c r="DQ24">
+        <v>34868.86</v>
+      </c>
+      <c r="DR24">
+        <v>31155.040000000001</v>
+      </c>
+      <c r="DS24">
+        <v>37050.379999999997</v>
+      </c>
+      <c r="DT24">
+        <v>31756.97</v>
+      </c>
+      <c r="DU24">
+        <v>46932.21</v>
+      </c>
+      <c r="DV24">
+        <v>28598.27</v>
+      </c>
+      <c r="DW24">
+        <v>30620.87</v>
+      </c>
+      <c r="DX24">
+        <v>29398.400000000001</v>
+      </c>
+      <c r="DY24">
+        <v>30979.78</v>
+      </c>
+      <c r="DZ24">
+        <v>26740.75</v>
+      </c>
+      <c r="EA24">
+        <v>22907.11</v>
+      </c>
+      <c r="EB24">
+        <v>26544.06</v>
+      </c>
+      <c r="EC24">
+        <v>27814.74</v>
+      </c>
+      <c r="ED24">
+        <v>23073.360000000001</v>
+      </c>
+      <c r="EE24">
+        <v>29931.82</v>
+      </c>
+      <c r="EF24">
+        <v>48440.79</v>
+      </c>
+      <c r="EG24">
+        <v>36311.57</v>
+      </c>
+      <c r="EH24">
+        <v>28425</v>
+      </c>
+      <c r="EI24">
+        <v>23682.11</v>
+      </c>
+      <c r="EJ24">
+        <v>34699.9</v>
+      </c>
+      <c r="EK24">
+        <v>32002.48</v>
+      </c>
+      <c r="EL24">
+        <v>166922.70000000001</v>
+      </c>
+      <c r="EM24">
+        <v>19488.38</v>
+      </c>
+      <c r="EN24">
+        <v>31948.85</v>
+      </c>
+      <c r="EO24">
+        <v>22574.62</v>
+      </c>
+      <c r="EP24">
+        <v>32807.589999999997</v>
+      </c>
+      <c r="EQ24">
+        <v>20654.599999999999</v>
+      </c>
+      <c r="ER24">
+        <v>38952.92</v>
+      </c>
+      <c r="ES24">
+        <v>14466.34</v>
+      </c>
+      <c r="ET24">
+        <v>118607.9</v>
+      </c>
+      <c r="EU24">
+        <v>96057.96</v>
+      </c>
+      <c r="EV24">
+        <v>24383.22</v>
+      </c>
+      <c r="EW24">
+        <v>33348.39</v>
+      </c>
+      <c r="EX24">
+        <v>26284.32</v>
+      </c>
+      <c r="EY24">
+        <v>34547.56</v>
+      </c>
+      <c r="EZ24">
+        <v>27449.08</v>
+      </c>
+      <c r="FA24">
+        <v>106565.8</v>
+      </c>
+      <c r="FB24">
+        <v>13338.12</v>
+      </c>
+      <c r="FC24">
+        <v>23171.51</v>
+      </c>
+      <c r="FD24">
+        <v>12877.29</v>
+      </c>
+      <c r="FE24">
+        <v>23153.439999999999</v>
+      </c>
+      <c r="FF24">
+        <v>25691.09</v>
+      </c>
+      <c r="FG24">
+        <v>32207.4</v>
+      </c>
+      <c r="FH24">
+        <v>90830.58</v>
+      </c>
+      <c r="FI24">
+        <v>19277.39</v>
+      </c>
+      <c r="FJ24">
+        <v>20989.41</v>
+      </c>
+      <c r="FK24">
+        <v>42115.99</v>
+      </c>
+      <c r="FL24">
+        <v>27826.46</v>
+      </c>
+      <c r="FM24">
+        <v>14942.49</v>
+      </c>
+      <c r="FN24">
+        <v>24345.85</v>
+      </c>
+      <c r="FO24">
+        <v>31078.92</v>
+      </c>
+      <c r="FP24">
+        <v>24571.71</v>
+      </c>
+      <c r="FQ24">
+        <v>24455.63</v>
+      </c>
+      <c r="FR24">
+        <v>23317.87</v>
+      </c>
+      <c r="FS24">
+        <v>48461.58</v>
+      </c>
+      <c r="FT24">
+        <v>25623.38</v>
+      </c>
+      <c r="FU24">
+        <v>23992.9</v>
+      </c>
+      <c r="FV24">
+        <v>26226.29</v>
+      </c>
+      <c r="FW24">
+        <v>31048.07</v>
+      </c>
+      <c r="FX24">
+        <v>43497.71</v>
+      </c>
+      <c r="FY24">
+        <v>28093.17</v>
+      </c>
+      <c r="FZ24">
+        <v>16085.61</v>
+      </c>
+      <c r="GA24">
+        <v>161795</v>
+      </c>
+      <c r="GB24">
+        <v>634.69389999999999</v>
+      </c>
+      <c r="GC24">
+        <v>23738.48</v>
+      </c>
+      <c r="GD24">
+        <v>27566.74</v>
+      </c>
+      <c r="GE24">
+        <v>1540.086</v>
+      </c>
+      <c r="GF24">
+        <v>23735.360000000001</v>
+      </c>
+      <c r="GG24">
+        <v>23489.46</v>
+      </c>
+      <c r="GH24">
+        <v>4916.7380000000003</v>
+      </c>
+      <c r="GI24">
+        <v>34281.46</v>
+      </c>
+      <c r="GJ24">
+        <v>27310.799999999999</v>
+      </c>
+      <c r="GK24">
+        <v>22050.43</v>
+      </c>
+      <c r="GL24">
+        <v>28884.34</v>
+      </c>
+      <c r="GM24">
+        <v>93779.23</v>
+      </c>
+      <c r="GN24">
+        <v>27869.87</v>
+      </c>
+      <c r="GO24">
+        <v>90463.01</v>
+      </c>
+      <c r="GP24">
+        <v>23774.33</v>
+      </c>
+      <c r="GQ24">
+        <v>24883.22</v>
+      </c>
+      <c r="GR24">
+        <v>17780.060000000001</v>
+      </c>
+      <c r="GS24">
+        <v>17502.23</v>
+      </c>
+      <c r="GT24">
+        <v>15118.25</v>
+      </c>
+      <c r="GU24">
+        <v>15641.38</v>
+      </c>
+      <c r="GV24">
+        <v>25303.11</v>
+      </c>
+      <c r="GW24">
+        <v>30733.83</v>
+      </c>
+      <c r="GX24">
+        <v>30944.400000000001</v>
+      </c>
+      <c r="GY24">
+        <v>19682.189999999999</v>
+      </c>
+      <c r="GZ24">
+        <v>17335.62</v>
+      </c>
+      <c r="HA24">
+        <v>30831.87</v>
+      </c>
+      <c r="HB24">
+        <v>27257.46</v>
+      </c>
+      <c r="HC24">
+        <v>29796.720000000001</v>
+      </c>
+      <c r="HD24">
+        <v>39144.160000000003</v>
+      </c>
+      <c r="HE24">
+        <v>32590.89</v>
+      </c>
+      <c r="HF24">
+        <v>29929.119999999999</v>
+      </c>
+      <c r="HG24">
+        <v>29884.44</v>
+      </c>
+      <c r="HH24">
+        <v>27028.25</v>
+      </c>
+      <c r="HI24">
+        <v>21350.55</v>
+      </c>
+      <c r="HJ24">
+        <v>1767.31</v>
+      </c>
+      <c r="HK24">
+        <v>22191.5</v>
+      </c>
+      <c r="HL24">
+        <v>45829.68</v>
+      </c>
+      <c r="HM24">
+        <v>16926.189999999999</v>
+      </c>
+      <c r="HN24">
+        <v>22944.39</v>
+      </c>
+      <c r="HO24">
+        <v>28106.94</v>
+      </c>
+      <c r="HP24">
+        <v>22951.5</v>
+      </c>
+      <c r="HQ24">
+        <v>19737.73</v>
+      </c>
+      <c r="HR24">
+        <v>33721.82</v>
+      </c>
+      <c r="HS24">
+        <v>29944.46</v>
+      </c>
+      <c r="HT24">
+        <v>32627.17</v>
+      </c>
+      <c r="HU24">
+        <v>32555.86</v>
+      </c>
+      <c r="HV24">
+        <v>26982.09</v>
+      </c>
+      <c r="HW24">
+        <v>31393.68</v>
+      </c>
+      <c r="HX24">
+        <v>30433.19</v>
+      </c>
+      <c r="HY24">
+        <v>104504.7</v>
+      </c>
+      <c r="HZ24">
+        <v>34883.9</v>
+      </c>
+      <c r="IA24">
+        <v>38205.550000000003</v>
+      </c>
+      <c r="IB24">
+        <v>81405.41</v>
+      </c>
+      <c r="IC24">
+        <v>30856.39</v>
+      </c>
+      <c r="ID24">
+        <v>20505.5</v>
+      </c>
+      <c r="IE24">
+        <v>24102.13</v>
+      </c>
+      <c r="IF24">
+        <v>22250.97</v>
+      </c>
+      <c r="IG24">
+        <v>6798.0309999999999</v>
+      </c>
+      <c r="IH24">
+        <v>24050.639999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:242" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>15.37</v>
-      </c>
-      <c r="C25">
-        <v>102.9355</v>
-      </c>
-      <c r="D25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" t="s">
-        <v>252</v>
-      </c>
-      <c r="G25">
-        <v>0.8475336</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L25" t="s">
-        <v>258</v>
-      </c>
-      <c r="N25">
-        <v>-1</v>
-      </c>
-      <c r="O25">
-        <v>-1</v>
-      </c>
-      <c r="P25">
-        <v>-1</v>
-      </c>
-      <c r="Q25">
-        <v>-1</v>
-      </c>
-      <c r="R25">
-        <v>-1</v>
-      </c>
-      <c r="S25" t="s">
-        <v>89</v>
-      </c>
-      <c r="T25" t="s">
-        <v>313</v>
-      </c>
-      <c r="V25">
-        <v>14987.76</v>
-      </c>
-      <c r="W25">
-        <v>36568.97</v>
-      </c>
-      <c r="X25">
-        <v>23433.83</v>
-      </c>
-      <c r="Y25">
-        <v>29355.42</v>
-      </c>
-      <c r="Z25">
-        <v>26189.13</v>
-      </c>
-      <c r="AA25">
-        <v>4860.8609999999999</v>
-      </c>
-      <c r="AB25">
-        <v>42219.02</v>
-      </c>
-      <c r="AC25">
-        <v>1975.855</v>
-      </c>
-      <c r="AD25">
-        <v>36019.660000000003</v>
-      </c>
-      <c r="AE25">
-        <v>108125</v>
-      </c>
-      <c r="AF25">
-        <v>47725.34</v>
-      </c>
-      <c r="AG25">
-        <v>23763.64</v>
-      </c>
-      <c r="AH25">
-        <v>28072.5</v>
-      </c>
-      <c r="AI25">
-        <v>19771.96</v>
-      </c>
-      <c r="AJ25">
-        <v>31607.83</v>
-      </c>
-      <c r="AK25">
-        <v>36085.919999999998</v>
-      </c>
-      <c r="AL25">
-        <v>38033.22</v>
-      </c>
-      <c r="AM25">
-        <v>30992.75</v>
-      </c>
-      <c r="AN25">
-        <v>24948.17</v>
-      </c>
-      <c r="AO25">
-        <v>41628.81</v>
-      </c>
-      <c r="AP25">
-        <v>27711.85</v>
-      </c>
-      <c r="AQ25">
-        <v>22196.37</v>
-      </c>
-      <c r="AR25">
-        <v>37407.269999999997</v>
-      </c>
-      <c r="AS25">
-        <v>23183.599999999999</v>
-      </c>
-      <c r="AT25">
-        <v>24311.05</v>
-      </c>
-      <c r="AU25">
-        <v>37321.160000000003</v>
-      </c>
-      <c r="AV25">
-        <v>11977.48</v>
-      </c>
-      <c r="AW25">
-        <v>31376.76</v>
-      </c>
-      <c r="AX25">
-        <v>260885.6</v>
-      </c>
-      <c r="AY25">
-        <v>22223.49</v>
-      </c>
-      <c r="AZ25">
-        <v>84514.22</v>
-      </c>
-      <c r="BA25">
-        <v>22760</v>
-      </c>
-      <c r="BB25">
-        <v>30963.14</v>
-      </c>
-      <c r="BC25">
-        <v>32461.49</v>
-      </c>
-      <c r="BD25">
-        <v>26027.17</v>
-      </c>
-      <c r="BE25">
-        <v>23953.34</v>
-      </c>
-      <c r="BF25">
-        <v>80680.58</v>
-      </c>
-      <c r="BG25">
-        <v>38171</v>
-      </c>
-      <c r="BH25">
-        <v>34161.339999999997</v>
-      </c>
-      <c r="BI25">
-        <v>22493.34</v>
-      </c>
-      <c r="BJ25">
-        <v>23682.81</v>
-      </c>
-      <c r="BK25">
-        <v>33604.49</v>
-      </c>
-      <c r="BL25">
-        <v>1145.5409999999999</v>
-      </c>
-      <c r="BM25">
-        <v>35238.33</v>
-      </c>
-      <c r="BN25">
-        <v>35436.300000000003</v>
-      </c>
-      <c r="BO25">
-        <v>24794.53</v>
-      </c>
-      <c r="BP25">
-        <v>36818.080000000002</v>
-      </c>
-      <c r="BQ25">
-        <v>33106.449999999997</v>
-      </c>
-      <c r="BR25">
-        <v>30412.54</v>
-      </c>
-      <c r="BS25">
-        <v>37080.11</v>
-      </c>
-      <c r="BT25">
-        <v>54852.09</v>
-      </c>
-      <c r="BU25">
-        <v>20357.04</v>
-      </c>
-      <c r="BV25">
-        <v>18829.72</v>
-      </c>
-      <c r="BW25">
-        <v>40606.35</v>
-      </c>
-      <c r="BX25">
-        <v>37960.18</v>
-      </c>
-      <c r="BY25">
-        <v>29696.12</v>
-      </c>
-      <c r="BZ25">
-        <v>17868.91</v>
-      </c>
-      <c r="CA25">
-        <v>36587.910000000003</v>
-      </c>
-      <c r="CB25">
-        <v>31228.67</v>
-      </c>
-      <c r="CC25">
-        <v>37232.65</v>
-      </c>
-      <c r="CD25">
-        <v>20202.810000000001</v>
-      </c>
-      <c r="CE25">
-        <v>20021.32</v>
-      </c>
-      <c r="CF25">
-        <v>27520.65</v>
-      </c>
-      <c r="CG25">
-        <v>53412.58</v>
-      </c>
-      <c r="CH25">
-        <v>24125.11</v>
-      </c>
-      <c r="CI25">
-        <v>19469.810000000001</v>
-      </c>
-      <c r="CJ25">
-        <v>22467.87</v>
-      </c>
-      <c r="CK25">
-        <v>22102.79</v>
-      </c>
-      <c r="CL25">
-        <v>33115.5</v>
-      </c>
-      <c r="CM25">
-        <v>35596.959999999999</v>
-      </c>
-      <c r="CN25">
-        <v>20240.599999999999</v>
-      </c>
-      <c r="CO25">
-        <v>35184.9</v>
-      </c>
-      <c r="CP25">
-        <v>34241.730000000003</v>
-      </c>
-      <c r="CQ25">
-        <v>35000.980000000003</v>
-      </c>
-      <c r="CR25">
-        <v>37447.64</v>
-      </c>
-      <c r="CS25">
-        <v>24846.34</v>
-      </c>
-      <c r="CT25">
-        <v>23411.4</v>
-      </c>
-      <c r="CU25">
-        <v>107605.3</v>
-      </c>
-      <c r="CV25">
-        <v>25202.32</v>
-      </c>
-      <c r="CW25">
-        <v>43916.21</v>
-      </c>
-      <c r="CX25">
-        <v>182341.4</v>
-      </c>
-      <c r="CY25">
-        <v>40136.589999999997</v>
-      </c>
-      <c r="CZ25">
-        <v>108902.7</v>
-      </c>
-      <c r="DA25">
-        <v>20186.53</v>
-      </c>
-      <c r="DB25">
-        <v>21241.79</v>
-      </c>
-      <c r="DC25">
-        <v>21520.97</v>
-      </c>
-      <c r="DD25">
-        <v>32461.88</v>
-      </c>
-      <c r="DE25">
-        <v>32492.95</v>
-      </c>
-      <c r="DF25">
-        <v>41234.01</v>
-      </c>
-      <c r="DG25">
-        <v>23364.46</v>
-      </c>
-      <c r="DH25">
-        <v>25196.53</v>
-      </c>
-      <c r="DI25">
-        <v>23839.16</v>
-      </c>
-      <c r="DJ25">
-        <v>109704.6</v>
-      </c>
-      <c r="DK25">
-        <v>179295.7</v>
-      </c>
-      <c r="DL25">
-        <v>45959.360000000001</v>
-      </c>
-      <c r="DM25">
-        <v>79246.48</v>
-      </c>
-      <c r="DN25">
-        <v>28971.74</v>
-      </c>
-      <c r="DO25">
-        <v>100284.4</v>
-      </c>
-      <c r="DP25">
-        <v>26021.47</v>
-      </c>
-      <c r="DQ25">
-        <v>34868.86</v>
-      </c>
-      <c r="DR25">
-        <v>31155.040000000001</v>
-      </c>
-      <c r="DS25">
-        <v>37050.379999999997</v>
-      </c>
-      <c r="DT25">
-        <v>31756.97</v>
-      </c>
-      <c r="DU25">
-        <v>46932.21</v>
-      </c>
-      <c r="DV25">
-        <v>28598.27</v>
-      </c>
-      <c r="DW25">
-        <v>30620.87</v>
-      </c>
-      <c r="DX25">
-        <v>29398.400000000001</v>
-      </c>
-      <c r="DY25">
-        <v>30979.78</v>
-      </c>
-      <c r="DZ25">
-        <v>26740.75</v>
-      </c>
-      <c r="EA25">
-        <v>22907.11</v>
-      </c>
-      <c r="EB25">
-        <v>26544.06</v>
-      </c>
-      <c r="EC25">
-        <v>27814.74</v>
-      </c>
-      <c r="ED25">
-        <v>23073.360000000001</v>
-      </c>
-      <c r="EE25">
-        <v>29931.82</v>
-      </c>
-      <c r="EF25">
-        <v>48440.79</v>
-      </c>
-      <c r="EG25">
-        <v>36311.57</v>
-      </c>
-      <c r="EH25">
-        <v>28425</v>
-      </c>
-      <c r="EI25">
-        <v>23682.11</v>
-      </c>
-      <c r="EJ25">
-        <v>34699.9</v>
-      </c>
-      <c r="EK25">
-        <v>32002.48</v>
-      </c>
-      <c r="EL25">
-        <v>166922.70000000001</v>
-      </c>
-      <c r="EM25">
-        <v>19488.38</v>
-      </c>
-      <c r="EN25">
-        <v>31948.85</v>
-      </c>
-      <c r="EO25">
-        <v>22574.62</v>
-      </c>
-      <c r="EP25">
-        <v>32807.589999999997</v>
-      </c>
-      <c r="EQ25">
-        <v>20654.599999999999</v>
-      </c>
-      <c r="ER25">
-        <v>38952.92</v>
-      </c>
-      <c r="ES25">
-        <v>14466.34</v>
-      </c>
-      <c r="ET25">
-        <v>118607.9</v>
-      </c>
-      <c r="EU25">
-        <v>96057.96</v>
-      </c>
-      <c r="EV25">
-        <v>24383.22</v>
-      </c>
-      <c r="EW25">
-        <v>33348.39</v>
-      </c>
-      <c r="EX25">
-        <v>26284.32</v>
-      </c>
-      <c r="EY25">
-        <v>34547.56</v>
-      </c>
-      <c r="EZ25">
-        <v>27449.08</v>
-      </c>
-      <c r="FA25">
-        <v>106565.8</v>
-      </c>
-      <c r="FB25">
-        <v>13338.12</v>
-      </c>
-      <c r="FC25">
-        <v>23171.51</v>
-      </c>
-      <c r="FD25">
-        <v>12877.29</v>
-      </c>
-      <c r="FE25">
-        <v>23153.439999999999</v>
-      </c>
-      <c r="FF25">
-        <v>25691.09</v>
-      </c>
-      <c r="FG25">
-        <v>32207.4</v>
-      </c>
-      <c r="FH25">
-        <v>90830.58</v>
-      </c>
-      <c r="FI25">
-        <v>19277.39</v>
-      </c>
-      <c r="FJ25">
-        <v>20989.41</v>
-      </c>
-      <c r="FK25">
-        <v>42115.99</v>
-      </c>
-      <c r="FL25">
-        <v>27826.46</v>
-      </c>
-      <c r="FM25">
-        <v>14942.49</v>
-      </c>
-      <c r="FN25">
-        <v>24345.85</v>
-      </c>
-      <c r="FO25">
-        <v>31078.92</v>
-      </c>
-      <c r="FP25">
-        <v>24571.71</v>
-      </c>
-      <c r="FQ25">
-        <v>24455.63</v>
-      </c>
-      <c r="FR25">
-        <v>23317.87</v>
-      </c>
-      <c r="FS25">
-        <v>48461.58</v>
-      </c>
-      <c r="FT25">
-        <v>25623.38</v>
-      </c>
-      <c r="FU25">
-        <v>23992.9</v>
-      </c>
-      <c r="FV25">
-        <v>26226.29</v>
-      </c>
-      <c r="FW25">
-        <v>31048.07</v>
-      </c>
-      <c r="FX25">
-        <v>43497.71</v>
-      </c>
-      <c r="FY25">
-        <v>28093.17</v>
-      </c>
-      <c r="FZ25">
-        <v>16085.61</v>
-      </c>
-      <c r="GA25">
-        <v>161795</v>
-      </c>
-      <c r="GB25">
-        <v>634.69389999999999</v>
-      </c>
-      <c r="GC25">
-        <v>23738.48</v>
-      </c>
-      <c r="GD25">
-        <v>27566.74</v>
-      </c>
-      <c r="GE25">
-        <v>1540.086</v>
-      </c>
-      <c r="GF25">
-        <v>23735.360000000001</v>
-      </c>
-      <c r="GG25">
-        <v>23489.46</v>
-      </c>
-      <c r="GH25">
-        <v>4916.7380000000003</v>
-      </c>
-      <c r="GI25">
-        <v>34281.46</v>
-      </c>
-      <c r="GJ25">
-        <v>27310.799999999999</v>
-      </c>
-      <c r="GK25">
-        <v>22050.43</v>
-      </c>
-      <c r="GL25">
-        <v>28884.34</v>
-      </c>
-      <c r="GM25">
-        <v>93779.23</v>
-      </c>
-      <c r="GN25">
-        <v>27869.87</v>
-      </c>
-      <c r="GO25">
-        <v>90463.01</v>
-      </c>
-      <c r="GP25">
-        <v>23774.33</v>
-      </c>
-      <c r="GQ25">
-        <v>24883.22</v>
-      </c>
-      <c r="GR25">
-        <v>17780.060000000001</v>
-      </c>
-      <c r="GS25">
-        <v>17502.23</v>
-      </c>
-      <c r="GT25">
-        <v>15118.25</v>
-      </c>
-      <c r="GU25">
-        <v>15641.38</v>
-      </c>
-      <c r="GV25">
-        <v>25303.11</v>
-      </c>
-      <c r="GW25">
-        <v>30733.83</v>
-      </c>
-      <c r="GX25">
-        <v>30944.400000000001</v>
-      </c>
-      <c r="GY25">
-        <v>19682.189999999999</v>
-      </c>
-      <c r="GZ25">
-        <v>17335.62</v>
-      </c>
-      <c r="HA25">
-        <v>30831.87</v>
-      </c>
-      <c r="HB25">
-        <v>27257.46</v>
-      </c>
-      <c r="HC25">
-        <v>29796.720000000001</v>
-      </c>
-      <c r="HD25">
-        <v>39144.160000000003</v>
-      </c>
-      <c r="HE25">
-        <v>32590.89</v>
-      </c>
-      <c r="HF25">
-        <v>29929.119999999999</v>
-      </c>
-      <c r="HG25">
-        <v>29884.44</v>
-      </c>
-      <c r="HH25">
-        <v>27028.25</v>
-      </c>
-      <c r="HI25">
-        <v>21350.55</v>
-      </c>
-      <c r="HJ25">
-        <v>1767.31</v>
-      </c>
-      <c r="HK25">
-        <v>22191.5</v>
-      </c>
-      <c r="HL25">
-        <v>45829.68</v>
-      </c>
-      <c r="HM25">
-        <v>16926.189999999999</v>
-      </c>
-      <c r="HN25">
-        <v>22944.39</v>
-      </c>
-      <c r="HO25">
-        <v>28106.94</v>
-      </c>
-      <c r="HP25">
-        <v>22951.5</v>
-      </c>
-      <c r="HQ25">
-        <v>19737.73</v>
-      </c>
-      <c r="HR25">
-        <v>33721.82</v>
-      </c>
-      <c r="HS25">
-        <v>29944.46</v>
-      </c>
-      <c r="HT25">
-        <v>32627.17</v>
-      </c>
-      <c r="HU25">
-        <v>32555.86</v>
-      </c>
-      <c r="HV25">
-        <v>26982.09</v>
-      </c>
-      <c r="HW25">
-        <v>31393.68</v>
-      </c>
-      <c r="HX25">
-        <v>30433.19</v>
-      </c>
-      <c r="HY25">
-        <v>104504.7</v>
-      </c>
-      <c r="HZ25">
-        <v>34883.9</v>
-      </c>
-      <c r="IA25">
-        <v>38205.550000000003</v>
-      </c>
-      <c r="IB25">
-        <v>81405.41</v>
-      </c>
-      <c r="IC25">
-        <v>30856.39</v>
-      </c>
-      <c r="ID25">
-        <v>20505.5</v>
-      </c>
-      <c r="IE25">
-        <v>24102.13</v>
-      </c>
-      <c r="IF25">
-        <v>22250.97</v>
-      </c>
-      <c r="IG25">
-        <v>6798.0309999999999</v>
-      </c>
-      <c r="IH25">
-        <v>24050.639999999999</v>
-      </c>
+    <row r="39" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA40" s="1"/>
+    <row r="160" spans="187:187" x14ac:dyDescent="0.3">
+      <c r="GE160" s="1"/>
     </row>
-    <row r="161" spans="187:187" x14ac:dyDescent="0.3">
-      <c r="GE161" s="1"/>
+    <row r="182" spans="112:145" x14ac:dyDescent="0.3">
+      <c r="DH182" s="1"/>
+      <c r="EO182" s="1"/>
     </row>
-    <row r="183" spans="112:145" x14ac:dyDescent="0.3">
-      <c r="DH183" s="1"/>
-      <c r="EO183" s="1"/>
+    <row r="201" spans="27:236" x14ac:dyDescent="0.3">
+      <c r="AA201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AT201" s="1"/>
+      <c r="BL201" s="1"/>
+      <c r="GE201" s="1"/>
+      <c r="HZ201" s="1"/>
+      <c r="IB201" s="1"/>
     </row>
-    <row r="202" spans="27:236" x14ac:dyDescent="0.3">
-      <c r="AA202" s="1"/>
-      <c r="AC202" s="1"/>
-      <c r="AT202" s="1"/>
-      <c r="BL202" s="1"/>
-      <c r="GE202" s="1"/>
-      <c r="HZ202" s="1"/>
-      <c r="IB202" s="1"/>
+    <row r="375" spans="30:238" x14ac:dyDescent="0.3">
+      <c r="AD375" s="1"/>
+      <c r="AE375" s="1"/>
+      <c r="AF375" s="1"/>
+      <c r="AJ375" s="1"/>
+      <c r="AP375" s="1"/>
+      <c r="AQ375" s="1"/>
+      <c r="AT375" s="1"/>
+      <c r="AU375" s="1"/>
+      <c r="AX375" s="1"/>
+      <c r="AZ375" s="1"/>
+      <c r="BA375" s="1"/>
+      <c r="BB375" s="1"/>
+      <c r="BD375" s="1"/>
+      <c r="BF375" s="1"/>
+      <c r="BG375" s="1"/>
+      <c r="BH375" s="1"/>
+      <c r="BJ375" s="1"/>
+      <c r="BK375" s="1"/>
+      <c r="BM375" s="1"/>
+      <c r="BN375" s="1"/>
+      <c r="BO375" s="1"/>
+      <c r="BR375" s="1"/>
+      <c r="BT375" s="1"/>
+      <c r="BU375" s="1"/>
+      <c r="BV375" s="1"/>
+      <c r="BW375" s="1"/>
+      <c r="BX375" s="1"/>
+      <c r="BY375" s="1"/>
+      <c r="CA375" s="1"/>
+      <c r="CC375" s="1"/>
+      <c r="CD375" s="1"/>
+      <c r="CF375" s="1"/>
+      <c r="CG375" s="1"/>
+      <c r="CH375" s="1"/>
+      <c r="CI375" s="1"/>
+      <c r="CJ375" s="1"/>
+      <c r="CK375" s="1"/>
+      <c r="CL375" s="1"/>
+      <c r="CM375" s="1"/>
+      <c r="CO375" s="1"/>
+      <c r="CP375" s="1"/>
+      <c r="CQ375" s="1"/>
+      <c r="CR375" s="1"/>
+      <c r="CS375" s="1"/>
+      <c r="CT375" s="1"/>
+      <c r="CU375" s="1"/>
+      <c r="CV375" s="1"/>
+      <c r="CW375" s="1"/>
+      <c r="CX375" s="1"/>
+      <c r="CY375" s="1"/>
+      <c r="CZ375" s="1"/>
+      <c r="DA375" s="1"/>
+      <c r="DB375" s="1"/>
+      <c r="DC375" s="1"/>
+      <c r="DD375" s="1"/>
+      <c r="DE375" s="1"/>
+      <c r="DF375" s="1"/>
+      <c r="DG375" s="1"/>
+      <c r="DI375" s="1"/>
+      <c r="DJ375" s="1"/>
+      <c r="DK375" s="1"/>
+      <c r="DL375" s="1"/>
+      <c r="DM375" s="1"/>
+      <c r="DN375" s="1"/>
+      <c r="DO375" s="1"/>
+      <c r="DP375" s="1"/>
+      <c r="DQ375" s="1"/>
+      <c r="DR375" s="1"/>
+      <c r="DS375" s="1"/>
+      <c r="DT375" s="1"/>
+      <c r="DU375" s="1"/>
+      <c r="DV375" s="1"/>
+      <c r="DW375" s="1"/>
+      <c r="DX375" s="1"/>
+      <c r="DY375" s="1"/>
+      <c r="DZ375" s="1"/>
+      <c r="EA375" s="1"/>
+      <c r="EB375" s="1"/>
+      <c r="ED375" s="1"/>
+      <c r="EE375" s="1"/>
+      <c r="EF375" s="1"/>
+      <c r="EG375" s="1"/>
+      <c r="EH375" s="1"/>
+      <c r="EI375" s="1"/>
+      <c r="EJ375" s="1"/>
+      <c r="EK375" s="1"/>
+      <c r="EL375" s="1"/>
+      <c r="EM375" s="1"/>
+      <c r="EN375" s="1"/>
+      <c r="EP375" s="1"/>
+      <c r="ER375" s="1"/>
+      <c r="ES375" s="1"/>
+      <c r="ET375" s="1"/>
+      <c r="EU375" s="1"/>
+      <c r="EV375" s="1"/>
+      <c r="EW375" s="1"/>
+      <c r="EX375" s="1"/>
+      <c r="EY375" s="1"/>
+      <c r="EZ375" s="1"/>
+      <c r="FA375" s="1"/>
+      <c r="FB375" s="1"/>
+      <c r="FC375" s="1"/>
+      <c r="FD375" s="1"/>
+      <c r="FF375" s="1"/>
+      <c r="FG375" s="1"/>
+      <c r="FH375" s="1"/>
+      <c r="FI375" s="1"/>
+      <c r="FJ375" s="1"/>
+      <c r="FK375" s="1"/>
+      <c r="FL375" s="1"/>
+      <c r="FM375" s="1"/>
+      <c r="FN375" s="1"/>
+      <c r="FO375" s="1"/>
+      <c r="FQ375" s="1"/>
+      <c r="FR375" s="1"/>
+      <c r="FS375" s="1"/>
+      <c r="FT375" s="1"/>
+      <c r="FU375" s="1"/>
+      <c r="FV375" s="1"/>
+      <c r="FW375" s="1"/>
+      <c r="FX375" s="1"/>
+      <c r="FY375" s="1"/>
+      <c r="FZ375" s="1"/>
+      <c r="GA375" s="1"/>
+      <c r="GC375" s="1"/>
+      <c r="GD375" s="1"/>
+      <c r="GE375" s="1"/>
+      <c r="GF375" s="1"/>
+      <c r="GG375" s="1"/>
+      <c r="GI375" s="1"/>
+      <c r="GJ375" s="1"/>
+      <c r="GK375" s="1"/>
+      <c r="GL375" s="1"/>
+      <c r="GM375" s="1"/>
+      <c r="GN375" s="1"/>
+      <c r="GO375" s="1"/>
+      <c r="GP375" s="1"/>
+      <c r="GQ375" s="1"/>
+      <c r="GR375" s="1"/>
+      <c r="GS375" s="1"/>
+      <c r="GT375" s="1"/>
+      <c r="GU375" s="1"/>
+      <c r="GV375" s="1"/>
+      <c r="GW375" s="1"/>
+      <c r="GX375" s="1"/>
+      <c r="GY375" s="1"/>
+      <c r="GZ375" s="1"/>
+      <c r="HA375" s="1"/>
+      <c r="HB375" s="1"/>
+      <c r="HD375" s="1"/>
+      <c r="HE375" s="1"/>
+      <c r="HF375" s="1"/>
+      <c r="HG375" s="1"/>
+      <c r="HI375" s="1"/>
+      <c r="HK375" s="1"/>
+      <c r="HL375" s="1"/>
+      <c r="HM375" s="1"/>
+      <c r="HN375" s="1"/>
+      <c r="HO375" s="1"/>
+      <c r="HP375" s="1"/>
+      <c r="HQ375" s="1"/>
+      <c r="HR375" s="1"/>
+      <c r="HS375" s="1"/>
+      <c r="HT375" s="1"/>
+      <c r="HU375" s="1"/>
+      <c r="HW375" s="1"/>
+      <c r="HX375" s="1"/>
+      <c r="HY375" s="1"/>
+      <c r="HZ375" s="1"/>
+      <c r="IA375" s="1"/>
+      <c r="IB375" s="1"/>
+      <c r="IC375" s="1"/>
+      <c r="ID375" s="1"/>
     </row>
-    <row r="376" spans="30:238" x14ac:dyDescent="0.3">
-      <c r="AD376" s="1"/>
-      <c r="AE376" s="1"/>
-      <c r="AF376" s="1"/>
-      <c r="AJ376" s="1"/>
-      <c r="AP376" s="1"/>
-      <c r="AQ376" s="1"/>
-      <c r="AT376" s="1"/>
-      <c r="AU376" s="1"/>
-      <c r="AX376" s="1"/>
-      <c r="AZ376" s="1"/>
-      <c r="BA376" s="1"/>
-      <c r="BB376" s="1"/>
-      <c r="BD376" s="1"/>
-      <c r="BF376" s="1"/>
-      <c r="BG376" s="1"/>
-      <c r="BH376" s="1"/>
-      <c r="BJ376" s="1"/>
-      <c r="BK376" s="1"/>
-      <c r="BM376" s="1"/>
-      <c r="BN376" s="1"/>
-      <c r="BO376" s="1"/>
-      <c r="BR376" s="1"/>
-      <c r="BT376" s="1"/>
-      <c r="BU376" s="1"/>
-      <c r="BV376" s="1"/>
-      <c r="BW376" s="1"/>
-      <c r="BX376" s="1"/>
-      <c r="BY376" s="1"/>
-      <c r="CA376" s="1"/>
-      <c r="CC376" s="1"/>
-      <c r="CD376" s="1"/>
-      <c r="CF376" s="1"/>
-      <c r="CG376" s="1"/>
-      <c r="CH376" s="1"/>
-      <c r="CI376" s="1"/>
-      <c r="CJ376" s="1"/>
-      <c r="CK376" s="1"/>
-      <c r="CL376" s="1"/>
-      <c r="CM376" s="1"/>
-      <c r="CO376" s="1"/>
-      <c r="CP376" s="1"/>
-      <c r="CQ376" s="1"/>
-      <c r="CR376" s="1"/>
-      <c r="CS376" s="1"/>
-      <c r="CT376" s="1"/>
-      <c r="CU376" s="1"/>
-      <c r="CV376" s="1"/>
-      <c r="CW376" s="1"/>
-      <c r="CX376" s="1"/>
-      <c r="CY376" s="1"/>
-      <c r="CZ376" s="1"/>
-      <c r="DA376" s="1"/>
-      <c r="DB376" s="1"/>
-      <c r="DC376" s="1"/>
-      <c r="DD376" s="1"/>
-      <c r="DE376" s="1"/>
-      <c r="DF376" s="1"/>
-      <c r="DG376" s="1"/>
-      <c r="DI376" s="1"/>
-      <c r="DJ376" s="1"/>
-      <c r="DK376" s="1"/>
-      <c r="DL376" s="1"/>
-      <c r="DM376" s="1"/>
-      <c r="DN376" s="1"/>
-      <c r="DO376" s="1"/>
-      <c r="DP376" s="1"/>
-      <c r="DQ376" s="1"/>
-      <c r="DR376" s="1"/>
-      <c r="DS376" s="1"/>
-      <c r="DT376" s="1"/>
-      <c r="DU376" s="1"/>
-      <c r="DV376" s="1"/>
-      <c r="DW376" s="1"/>
-      <c r="DX376" s="1"/>
-      <c r="DY376" s="1"/>
-      <c r="DZ376" s="1"/>
-      <c r="EA376" s="1"/>
-      <c r="EB376" s="1"/>
-      <c r="ED376" s="1"/>
-      <c r="EE376" s="1"/>
-      <c r="EF376" s="1"/>
-      <c r="EG376" s="1"/>
-      <c r="EH376" s="1"/>
-      <c r="EI376" s="1"/>
-      <c r="EJ376" s="1"/>
-      <c r="EK376" s="1"/>
-      <c r="EL376" s="1"/>
-      <c r="EM376" s="1"/>
-      <c r="EN376" s="1"/>
-      <c r="EP376" s="1"/>
-      <c r="ER376" s="1"/>
-      <c r="ES376" s="1"/>
-      <c r="ET376" s="1"/>
-      <c r="EU376" s="1"/>
-      <c r="EV376" s="1"/>
-      <c r="EW376" s="1"/>
-      <c r="EX376" s="1"/>
-      <c r="EY376" s="1"/>
-      <c r="EZ376" s="1"/>
-      <c r="FA376" s="1"/>
-      <c r="FB376" s="1"/>
-      <c r="FC376" s="1"/>
-      <c r="FD376" s="1"/>
-      <c r="FF376" s="1"/>
-      <c r="FG376" s="1"/>
-      <c r="FH376" s="1"/>
-      <c r="FI376" s="1"/>
-      <c r="FJ376" s="1"/>
-      <c r="FK376" s="1"/>
-      <c r="FL376" s="1"/>
-      <c r="FM376" s="1"/>
-      <c r="FN376" s="1"/>
-      <c r="FO376" s="1"/>
-      <c r="FQ376" s="1"/>
-      <c r="FR376" s="1"/>
-      <c r="FS376" s="1"/>
-      <c r="FT376" s="1"/>
-      <c r="FU376" s="1"/>
-      <c r="FV376" s="1"/>
-      <c r="FW376" s="1"/>
-      <c r="FX376" s="1"/>
-      <c r="FY376" s="1"/>
-      <c r="FZ376" s="1"/>
-      <c r="GA376" s="1"/>
-      <c r="GC376" s="1"/>
-      <c r="GD376" s="1"/>
-      <c r="GE376" s="1"/>
-      <c r="GF376" s="1"/>
-      <c r="GG376" s="1"/>
-      <c r="GI376" s="1"/>
-      <c r="GJ376" s="1"/>
-      <c r="GK376" s="1"/>
-      <c r="GL376" s="1"/>
-      <c r="GM376" s="1"/>
-      <c r="GN376" s="1"/>
-      <c r="GO376" s="1"/>
-      <c r="GP376" s="1"/>
-      <c r="GQ376" s="1"/>
-      <c r="GR376" s="1"/>
-      <c r="GS376" s="1"/>
-      <c r="GT376" s="1"/>
-      <c r="GU376" s="1"/>
-      <c r="GV376" s="1"/>
-      <c r="GW376" s="1"/>
-      <c r="GX376" s="1"/>
-      <c r="GY376" s="1"/>
-      <c r="GZ376" s="1"/>
-      <c r="HA376" s="1"/>
-      <c r="HB376" s="1"/>
-      <c r="HD376" s="1"/>
-      <c r="HE376" s="1"/>
-      <c r="HF376" s="1"/>
-      <c r="HG376" s="1"/>
-      <c r="HI376" s="1"/>
-      <c r="HK376" s="1"/>
-      <c r="HL376" s="1"/>
-      <c r="HM376" s="1"/>
-      <c r="HN376" s="1"/>
-      <c r="HO376" s="1"/>
-      <c r="HP376" s="1"/>
-      <c r="HQ376" s="1"/>
-      <c r="HR376" s="1"/>
-      <c r="HS376" s="1"/>
-      <c r="HT376" s="1"/>
-      <c r="HU376" s="1"/>
-      <c r="HW376" s="1"/>
-      <c r="HX376" s="1"/>
-      <c r="HY376" s="1"/>
-      <c r="HZ376" s="1"/>
-      <c r="IA376" s="1"/>
-      <c r="IB376" s="1"/>
-      <c r="IC376" s="1"/>
-      <c r="ID376" s="1"/>
+    <row r="409" spans="112:242" x14ac:dyDescent="0.3">
+      <c r="DH409" s="1"/>
+      <c r="EO409" s="1"/>
+      <c r="ET409" s="1"/>
+      <c r="FE409" s="1"/>
+      <c r="FP409" s="1"/>
+      <c r="FV409" s="1"/>
+      <c r="GB409" s="1"/>
+      <c r="GD409" s="1"/>
+      <c r="GF409" s="1"/>
+      <c r="GI409" s="1"/>
+      <c r="GK409" s="1"/>
+      <c r="GM409" s="1"/>
+      <c r="GR409" s="1"/>
+      <c r="GV409" s="1"/>
+      <c r="GW409" s="1"/>
+      <c r="HC409" s="1"/>
+      <c r="HF409" s="1"/>
+      <c r="HH409" s="1"/>
+      <c r="HI409" s="1"/>
+      <c r="HJ409" s="1"/>
+      <c r="HQ409" s="1"/>
+      <c r="HV409" s="1"/>
+      <c r="HW409" s="1"/>
+      <c r="IE409" s="1"/>
+      <c r="IF409" s="1"/>
+      <c r="IG409" s="1"/>
+      <c r="IH409" s="1"/>
     </row>
     <row r="410" spans="112:242" x14ac:dyDescent="0.3">
       <c r="DH410" s="1"/>
-      <c r="EO410" s="1"/>
-      <c r="ET410" s="1"/>
-      <c r="FE410" s="1"/>
-      <c r="FP410" s="1"/>
-      <c r="FV410" s="1"/>
-      <c r="GB410" s="1"/>
-      <c r="GD410" s="1"/>
-      <c r="GF410" s="1"/>
-      <c r="GI410" s="1"/>
-      <c r="GK410" s="1"/>
-      <c r="GM410" s="1"/>
-      <c r="GR410" s="1"/>
-      <c r="GV410" s="1"/>
-      <c r="GW410" s="1"/>
       <c r="HC410" s="1"/>
-      <c r="HF410" s="1"/>
-      <c r="HH410" s="1"/>
-      <c r="HI410" s="1"/>
-      <c r="HJ410" s="1"/>
-      <c r="HQ410" s="1"/>
-      <c r="HV410" s="1"/>
-      <c r="HW410" s="1"/>
-      <c r="IE410" s="1"/>
-      <c r="IF410" s="1"/>
-      <c r="IG410" s="1"/>
-      <c r="IH410" s="1"/>
     </row>
-    <row r="411" spans="112:242" x14ac:dyDescent="0.3">
-      <c r="DH411" s="1"/>
-      <c r="HC411" s="1"/>
+    <row r="426" spans="33:233" x14ac:dyDescent="0.3">
+      <c r="AG426" s="1"/>
+      <c r="CJ426" s="1"/>
+      <c r="CO426" s="1"/>
+      <c r="DW426" s="1"/>
+      <c r="HR426" s="1"/>
+      <c r="HY426" s="1"/>
     </row>
-    <row r="427" spans="33:233" x14ac:dyDescent="0.3">
-      <c r="AG427" s="1"/>
-      <c r="CJ427" s="1"/>
-      <c r="CO427" s="1"/>
-      <c r="DW427" s="1"/>
-      <c r="HR427" s="1"/>
-      <c r="HY427" s="1"/>
+    <row r="455" spans="226:226" x14ac:dyDescent="0.3">
+      <c r="HR455" s="1"/>
     </row>
-    <row r="456" spans="226:226" x14ac:dyDescent="0.3">
-      <c r="HR456" s="1"/>
+    <row r="459" spans="226:226" x14ac:dyDescent="0.3">
+      <c r="HR459" s="1"/>
     </row>
-    <row r="460" spans="226:226" x14ac:dyDescent="0.3">
-      <c r="HR460" s="1"/>
+    <row r="467" spans="22:242" x14ac:dyDescent="0.3">
+      <c r="V467" s="1"/>
+      <c r="W467" s="1"/>
+      <c r="X467" s="1"/>
+      <c r="Y467" s="1"/>
+      <c r="Z467" s="1"/>
+      <c r="AB467" s="1"/>
+      <c r="AD467" s="1"/>
+      <c r="AE467" s="1"/>
+      <c r="AF467" s="1"/>
+      <c r="AG467" s="1"/>
+      <c r="AH467" s="1"/>
+      <c r="AI467" s="1"/>
+      <c r="AJ467" s="1"/>
+      <c r="AK467" s="1"/>
+      <c r="AL467" s="1"/>
+      <c r="AM467" s="1"/>
+      <c r="AN467" s="1"/>
+      <c r="AO467" s="1"/>
+      <c r="AP467" s="1"/>
+      <c r="AQ467" s="1"/>
+      <c r="AR467" s="1"/>
+      <c r="AS467" s="1"/>
+      <c r="AT467" s="1"/>
+      <c r="AU467" s="1"/>
+      <c r="AV467" s="1"/>
+      <c r="AW467" s="1"/>
+      <c r="AX467" s="1"/>
+      <c r="AY467" s="1"/>
+      <c r="AZ467" s="1"/>
+      <c r="BA467" s="1"/>
+      <c r="BB467" s="1"/>
+      <c r="BC467" s="1"/>
+      <c r="BD467" s="1"/>
+      <c r="BE467" s="1"/>
+      <c r="BF467" s="1"/>
+      <c r="BG467" s="1"/>
+      <c r="BH467" s="1"/>
+      <c r="BI467" s="1"/>
+      <c r="BJ467" s="1"/>
+      <c r="BK467" s="1"/>
+      <c r="BL467" s="1"/>
+      <c r="BM467" s="1"/>
+      <c r="BN467" s="1"/>
+      <c r="BO467" s="1"/>
+      <c r="BP467" s="1"/>
+      <c r="BQ467" s="1"/>
+      <c r="BR467" s="1"/>
+      <c r="BS467" s="1"/>
+      <c r="BT467" s="1"/>
+      <c r="BU467" s="1"/>
+      <c r="BV467" s="1"/>
+      <c r="BW467" s="1"/>
+      <c r="BX467" s="1"/>
+      <c r="BY467" s="1"/>
+      <c r="BZ467" s="1"/>
+      <c r="CA467" s="1"/>
+      <c r="CB467" s="1"/>
+      <c r="CC467" s="1"/>
+      <c r="CD467" s="1"/>
+      <c r="CE467" s="1"/>
+      <c r="CF467" s="1"/>
+      <c r="CG467" s="1"/>
+      <c r="CH467" s="1"/>
+      <c r="CI467" s="1"/>
+      <c r="CJ467" s="1"/>
+      <c r="CK467" s="1"/>
+      <c r="CL467" s="1"/>
+      <c r="CM467" s="1"/>
+      <c r="CN467" s="1"/>
+      <c r="CO467" s="1"/>
+      <c r="CP467" s="1"/>
+      <c r="CQ467" s="1"/>
+      <c r="CR467" s="1"/>
+      <c r="CS467" s="1"/>
+      <c r="CT467" s="1"/>
+      <c r="CU467" s="1"/>
+      <c r="CV467" s="1"/>
+      <c r="CW467" s="1"/>
+      <c r="CX467" s="1"/>
+      <c r="CY467" s="1"/>
+      <c r="CZ467" s="1"/>
+      <c r="DA467" s="1"/>
+      <c r="DB467" s="1"/>
+      <c r="DC467" s="1"/>
+      <c r="DD467" s="1"/>
+      <c r="DE467" s="1"/>
+      <c r="DF467" s="1"/>
+      <c r="DG467" s="1"/>
+      <c r="DH467" s="1"/>
+      <c r="DI467" s="1"/>
+      <c r="DJ467" s="1"/>
+      <c r="DK467" s="1"/>
+      <c r="DL467" s="1"/>
+      <c r="DM467" s="1"/>
+      <c r="DN467" s="1"/>
+      <c r="DO467" s="1"/>
+      <c r="DP467" s="1"/>
+      <c r="DQ467" s="1"/>
+      <c r="DR467" s="1"/>
+      <c r="DS467" s="1"/>
+      <c r="DT467" s="1"/>
+      <c r="DU467" s="1"/>
+      <c r="DV467" s="1"/>
+      <c r="DW467" s="1"/>
+      <c r="DX467" s="1"/>
+      <c r="DY467" s="1"/>
+      <c r="DZ467" s="1"/>
+      <c r="EA467" s="1"/>
+      <c r="EB467" s="1"/>
+      <c r="EC467" s="1"/>
+      <c r="ED467" s="1"/>
+      <c r="EE467" s="1"/>
+      <c r="EF467" s="1"/>
+      <c r="EG467" s="1"/>
+      <c r="EH467" s="1"/>
+      <c r="EI467" s="1"/>
+      <c r="EJ467" s="1"/>
+      <c r="EK467" s="1"/>
+      <c r="EL467" s="1"/>
+      <c r="EM467" s="1"/>
+      <c r="EN467" s="1"/>
+      <c r="EO467" s="1"/>
+      <c r="EP467" s="1"/>
+      <c r="EQ467" s="1"/>
+      <c r="ER467" s="1"/>
+      <c r="ES467" s="1"/>
+      <c r="ET467" s="1"/>
+      <c r="EU467" s="1"/>
+      <c r="EV467" s="1"/>
+      <c r="EW467" s="1"/>
+      <c r="EX467" s="1"/>
+      <c r="EY467" s="1"/>
+      <c r="EZ467" s="1"/>
+      <c r="FA467" s="1"/>
+      <c r="FB467" s="1"/>
+      <c r="FC467" s="1"/>
+      <c r="FD467" s="1"/>
+      <c r="FE467" s="1"/>
+      <c r="FF467" s="1"/>
+      <c r="FG467" s="1"/>
+      <c r="FH467" s="1"/>
+      <c r="FI467" s="1"/>
+      <c r="FJ467" s="1"/>
+      <c r="FK467" s="1"/>
+      <c r="FL467" s="1"/>
+      <c r="FM467" s="1"/>
+      <c r="FN467" s="1"/>
+      <c r="FO467" s="1"/>
+      <c r="FP467" s="1"/>
+      <c r="FQ467" s="1"/>
+      <c r="FR467" s="1"/>
+      <c r="FS467" s="1"/>
+      <c r="FT467" s="1"/>
+      <c r="FU467" s="1"/>
+      <c r="FV467" s="1"/>
+      <c r="FW467" s="1"/>
+      <c r="FX467" s="1"/>
+      <c r="FY467" s="1"/>
+      <c r="FZ467" s="1"/>
+      <c r="GA467" s="1"/>
+      <c r="GC467" s="1"/>
+      <c r="GD467" s="1"/>
+      <c r="GE467" s="1"/>
+      <c r="GF467" s="1"/>
+      <c r="GG467" s="1"/>
+      <c r="GH467" s="1"/>
+      <c r="GI467" s="1"/>
+      <c r="GJ467" s="1"/>
+      <c r="GK467" s="1"/>
+      <c r="GL467" s="1"/>
+      <c r="GM467" s="1"/>
+      <c r="GN467" s="1"/>
+      <c r="GO467" s="1"/>
+      <c r="GP467" s="1"/>
+      <c r="GQ467" s="1"/>
+      <c r="GR467" s="1"/>
+      <c r="GS467" s="1"/>
+      <c r="GT467" s="1"/>
+      <c r="GU467" s="1"/>
+      <c r="GV467" s="1"/>
+      <c r="GW467" s="1"/>
+      <c r="GX467" s="1"/>
+      <c r="GY467" s="1"/>
+      <c r="GZ467" s="1"/>
+      <c r="HA467" s="1"/>
+      <c r="HB467" s="1"/>
+      <c r="HC467" s="1"/>
+      <c r="HD467" s="1"/>
+      <c r="HE467" s="1"/>
+      <c r="HF467" s="1"/>
+      <c r="HG467" s="1"/>
+      <c r="HH467" s="1"/>
+      <c r="HI467" s="1"/>
+      <c r="HK467" s="1"/>
+      <c r="HL467" s="1"/>
+      <c r="HM467" s="1"/>
+      <c r="HN467" s="1"/>
+      <c r="HO467" s="1"/>
+      <c r="HP467" s="1"/>
+      <c r="HQ467" s="1"/>
+      <c r="HR467" s="1"/>
+      <c r="HS467" s="1"/>
+      <c r="HT467" s="1"/>
+      <c r="HU467" s="1"/>
+      <c r="HV467" s="1"/>
+      <c r="HW467" s="1"/>
+      <c r="HX467" s="1"/>
+      <c r="HY467" s="1"/>
+      <c r="HZ467" s="1"/>
+      <c r="IA467" s="1"/>
+      <c r="IB467" s="1"/>
+      <c r="IC467" s="1"/>
+      <c r="ID467" s="1"/>
+      <c r="IE467" s="1"/>
+      <c r="IF467" s="1"/>
+      <c r="IG467" s="1"/>
+      <c r="IH467" s="1"/>
     </row>
-    <row r="468" spans="22:242" x14ac:dyDescent="0.3">
-      <c r="V468" s="1"/>
-      <c r="W468" s="1"/>
-      <c r="X468" s="1"/>
-      <c r="Y468" s="1"/>
-      <c r="Z468" s="1"/>
-      <c r="AB468" s="1"/>
-      <c r="AD468" s="1"/>
-      <c r="AE468" s="1"/>
-      <c r="AF468" s="1"/>
-      <c r="AG468" s="1"/>
-      <c r="AH468" s="1"/>
-      <c r="AI468" s="1"/>
-      <c r="AJ468" s="1"/>
-      <c r="AK468" s="1"/>
-      <c r="AL468" s="1"/>
-      <c r="AM468" s="1"/>
-      <c r="AN468" s="1"/>
-      <c r="AO468" s="1"/>
-      <c r="AP468" s="1"/>
-      <c r="AQ468" s="1"/>
-      <c r="AR468" s="1"/>
-      <c r="AS468" s="1"/>
-      <c r="AT468" s="1"/>
-      <c r="AU468" s="1"/>
-      <c r="AV468" s="1"/>
-      <c r="AW468" s="1"/>
-      <c r="AX468" s="1"/>
-      <c r="AY468" s="1"/>
-      <c r="AZ468" s="1"/>
-      <c r="BA468" s="1"/>
-      <c r="BB468" s="1"/>
-      <c r="BC468" s="1"/>
-      <c r="BD468" s="1"/>
-      <c r="BE468" s="1"/>
-      <c r="BF468" s="1"/>
-      <c r="BG468" s="1"/>
-      <c r="BH468" s="1"/>
-      <c r="BI468" s="1"/>
-      <c r="BJ468" s="1"/>
-      <c r="BK468" s="1"/>
-      <c r="BL468" s="1"/>
-      <c r="BM468" s="1"/>
-      <c r="BN468" s="1"/>
-      <c r="BO468" s="1"/>
-      <c r="BP468" s="1"/>
-      <c r="BQ468" s="1"/>
-      <c r="BR468" s="1"/>
-      <c r="BS468" s="1"/>
-      <c r="BT468" s="1"/>
-      <c r="BU468" s="1"/>
-      <c r="BV468" s="1"/>
-      <c r="BW468" s="1"/>
-      <c r="BX468" s="1"/>
-      <c r="BY468" s="1"/>
-      <c r="BZ468" s="1"/>
-      <c r="CA468" s="1"/>
-      <c r="CB468" s="1"/>
-      <c r="CC468" s="1"/>
-      <c r="CD468" s="1"/>
-      <c r="CE468" s="1"/>
-      <c r="CF468" s="1"/>
-      <c r="CG468" s="1"/>
-      <c r="CH468" s="1"/>
-      <c r="CI468" s="1"/>
-      <c r="CJ468" s="1"/>
-      <c r="CK468" s="1"/>
-      <c r="CL468" s="1"/>
-      <c r="CM468" s="1"/>
-      <c r="CN468" s="1"/>
-      <c r="CO468" s="1"/>
-      <c r="CP468" s="1"/>
-      <c r="CQ468" s="1"/>
-      <c r="CR468" s="1"/>
-      <c r="CS468" s="1"/>
-      <c r="CT468" s="1"/>
-      <c r="CU468" s="1"/>
-      <c r="CV468" s="1"/>
-      <c r="CW468" s="1"/>
-      <c r="CX468" s="1"/>
-      <c r="CY468" s="1"/>
-      <c r="CZ468" s="1"/>
-      <c r="DA468" s="1"/>
-      <c r="DB468" s="1"/>
-      <c r="DC468" s="1"/>
-      <c r="DD468" s="1"/>
-      <c r="DE468" s="1"/>
-      <c r="DF468" s="1"/>
-      <c r="DG468" s="1"/>
-      <c r="DH468" s="1"/>
-      <c r="DI468" s="1"/>
-      <c r="DJ468" s="1"/>
-      <c r="DK468" s="1"/>
-      <c r="DL468" s="1"/>
-      <c r="DM468" s="1"/>
-      <c r="DN468" s="1"/>
-      <c r="DO468" s="1"/>
-      <c r="DP468" s="1"/>
-      <c r="DQ468" s="1"/>
-      <c r="DR468" s="1"/>
-      <c r="DS468" s="1"/>
-      <c r="DT468" s="1"/>
-      <c r="DU468" s="1"/>
-      <c r="DV468" s="1"/>
-      <c r="DW468" s="1"/>
-      <c r="DX468" s="1"/>
-      <c r="DY468" s="1"/>
-      <c r="DZ468" s="1"/>
-      <c r="EA468" s="1"/>
-      <c r="EB468" s="1"/>
-      <c r="EC468" s="1"/>
-      <c r="ED468" s="1"/>
-      <c r="EE468" s="1"/>
-      <c r="EF468" s="1"/>
-      <c r="EG468" s="1"/>
-      <c r="EH468" s="1"/>
-      <c r="EI468" s="1"/>
-      <c r="EJ468" s="1"/>
-      <c r="EK468" s="1"/>
-      <c r="EL468" s="1"/>
-      <c r="EM468" s="1"/>
-      <c r="EN468" s="1"/>
-      <c r="EO468" s="1"/>
-      <c r="EP468" s="1"/>
-      <c r="EQ468" s="1"/>
-      <c r="ER468" s="1"/>
-      <c r="ES468" s="1"/>
-      <c r="ET468" s="1"/>
-      <c r="EU468" s="1"/>
-      <c r="EV468" s="1"/>
-      <c r="EW468" s="1"/>
-      <c r="EX468" s="1"/>
-      <c r="EY468" s="1"/>
-      <c r="EZ468" s="1"/>
-      <c r="FA468" s="1"/>
-      <c r="FB468" s="1"/>
-      <c r="FC468" s="1"/>
-      <c r="FD468" s="1"/>
-      <c r="FE468" s="1"/>
-      <c r="FF468" s="1"/>
-      <c r="FG468" s="1"/>
-      <c r="FH468" s="1"/>
-      <c r="FI468" s="1"/>
-      <c r="FJ468" s="1"/>
-      <c r="FK468" s="1"/>
-      <c r="FL468" s="1"/>
-      <c r="FM468" s="1"/>
-      <c r="FN468" s="1"/>
-      <c r="FO468" s="1"/>
-      <c r="FP468" s="1"/>
-      <c r="FQ468" s="1"/>
-      <c r="FR468" s="1"/>
-      <c r="FS468" s="1"/>
-      <c r="FT468" s="1"/>
-      <c r="FU468" s="1"/>
-      <c r="FV468" s="1"/>
-      <c r="FW468" s="1"/>
-      <c r="FX468" s="1"/>
-      <c r="FY468" s="1"/>
-      <c r="FZ468" s="1"/>
-      <c r="GA468" s="1"/>
-      <c r="GC468" s="1"/>
-      <c r="GD468" s="1"/>
-      <c r="GE468" s="1"/>
-      <c r="GF468" s="1"/>
-      <c r="GG468" s="1"/>
-      <c r="GH468" s="1"/>
-      <c r="GI468" s="1"/>
-      <c r="GJ468" s="1"/>
-      <c r="GK468" s="1"/>
-      <c r="GL468" s="1"/>
-      <c r="GM468" s="1"/>
-      <c r="GN468" s="1"/>
-      <c r="GO468" s="1"/>
-      <c r="GP468" s="1"/>
-      <c r="GQ468" s="1"/>
-      <c r="GR468" s="1"/>
-      <c r="GS468" s="1"/>
-      <c r="GT468" s="1"/>
-      <c r="GU468" s="1"/>
-      <c r="GV468" s="1"/>
-      <c r="GW468" s="1"/>
-      <c r="GX468" s="1"/>
-      <c r="GY468" s="1"/>
-      <c r="GZ468" s="1"/>
-      <c r="HA468" s="1"/>
-      <c r="HB468" s="1"/>
-      <c r="HC468" s="1"/>
-      <c r="HD468" s="1"/>
-      <c r="HE468" s="1"/>
-      <c r="HF468" s="1"/>
-      <c r="HG468" s="1"/>
-      <c r="HH468" s="1"/>
-      <c r="HI468" s="1"/>
-      <c r="HK468" s="1"/>
-      <c r="HL468" s="1"/>
-      <c r="HM468" s="1"/>
-      <c r="HN468" s="1"/>
-      <c r="HO468" s="1"/>
-      <c r="HP468" s="1"/>
-      <c r="HQ468" s="1"/>
-      <c r="HR468" s="1"/>
-      <c r="HS468" s="1"/>
-      <c r="HT468" s="1"/>
-      <c r="HU468" s="1"/>
-      <c r="HV468" s="1"/>
-      <c r="HW468" s="1"/>
-      <c r="HX468" s="1"/>
-      <c r="HY468" s="1"/>
-      <c r="HZ468" s="1"/>
-      <c r="IA468" s="1"/>
-      <c r="IB468" s="1"/>
-      <c r="IC468" s="1"/>
-      <c r="ID468" s="1"/>
-      <c r="IE468" s="1"/>
-      <c r="IF468" s="1"/>
-      <c r="IG468" s="1"/>
-      <c r="IH468" s="1"/>
+    <row r="493" spans="192:212" x14ac:dyDescent="0.3">
+      <c r="GJ493" s="1"/>
+      <c r="GN493" s="1"/>
+      <c r="GW493" s="1"/>
+      <c r="HD493" s="1"/>
     </row>
-    <row r="494" spans="192:212" x14ac:dyDescent="0.3">
-      <c r="GJ494" s="1"/>
-      <c r="GN494" s="1"/>
-      <c r="GW494" s="1"/>
-      <c r="HD494" s="1"/>
+    <row r="506" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD506" s="1"/>
     </row>
-    <row r="507" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD507" s="1"/>
+    <row r="609" spans="45:59" x14ac:dyDescent="0.3">
+      <c r="AS609" s="1"/>
+      <c r="AT609" s="1"/>
+      <c r="BG609" s="1"/>
     </row>
-    <row r="610" spans="45:59" x14ac:dyDescent="0.3">
-      <c r="AS610" s="1"/>
-      <c r="AT610" s="1"/>
-      <c r="BG610" s="1"/>
+    <row r="644" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA644" s="1"/>
     </row>
     <row r="645" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA646" s="1"/>
+    <row r="736" spans="147:152" x14ac:dyDescent="0.3">
+      <c r="EQ736" s="1"/>
+      <c r="EV736" s="1"/>
     </row>
-    <row r="737" spans="147:152" x14ac:dyDescent="0.3">
-      <c r="EQ737" s="1"/>
-      <c r="EV737" s="1"/>
+    <row r="1073" spans="218:218" x14ac:dyDescent="0.3">
+      <c r="HJ1073" s="1"/>
     </row>
     <row r="1074" spans="218:218" x14ac:dyDescent="0.3">
       <c r="HJ1074" s="1"/>
     </row>
-    <row r="1075" spans="218:218" x14ac:dyDescent="0.3">
-      <c r="HJ1075" s="1"/>
+    <row r="1251" spans="39:242" x14ac:dyDescent="0.3">
+      <c r="AM1251" s="1"/>
+      <c r="AR1251" s="1"/>
+      <c r="AU1251" s="1"/>
+      <c r="AV1251" s="1"/>
+      <c r="HY1251" s="1"/>
+      <c r="IA1251" s="1"/>
+      <c r="IF1251" s="1"/>
+      <c r="IH1251" s="1"/>
     </row>
     <row r="1252" spans="39:242" x14ac:dyDescent="0.3">
-      <c r="AM1252" s="1"/>
-      <c r="AR1252" s="1"/>
-      <c r="AU1252" s="1"/>
-      <c r="AV1252" s="1"/>
-      <c r="HY1252" s="1"/>
-      <c r="IA1252" s="1"/>
-      <c r="IF1252" s="1"/>
-      <c r="IH1252" s="1"/>
+      <c r="CK1252" s="1"/>
+      <c r="CN1252" s="1"/>
+      <c r="CP1252" s="1"/>
+      <c r="CQ1252" s="1"/>
+      <c r="CR1252" s="1"/>
+      <c r="CS1252" s="1"/>
+      <c r="CT1252" s="1"/>
+      <c r="CU1252" s="1"/>
+      <c r="CV1252" s="1"/>
+      <c r="CW1252" s="1"/>
+      <c r="CY1252" s="1"/>
+      <c r="CZ1252" s="1"/>
+      <c r="DA1252" s="1"/>
+      <c r="DC1252" s="1"/>
+      <c r="DD1252" s="1"/>
+      <c r="DE1252" s="1"/>
+      <c r="DF1252" s="1"/>
+      <c r="DG1252" s="1"/>
+      <c r="DH1252" s="1"/>
+      <c r="DI1252" s="1"/>
+      <c r="DK1252" s="1"/>
+      <c r="DL1252" s="1"/>
+      <c r="DN1252" s="1"/>
+      <c r="DO1252" s="1"/>
+      <c r="DS1252" s="1"/>
+      <c r="EC1252" s="1"/>
     </row>
-    <row r="1253" spans="39:242" x14ac:dyDescent="0.3">
-      <c r="CK1253" s="1"/>
-      <c r="CN1253" s="1"/>
-      <c r="CP1253" s="1"/>
-      <c r="CQ1253" s="1"/>
-      <c r="CR1253" s="1"/>
-      <c r="CS1253" s="1"/>
-      <c r="CT1253" s="1"/>
-      <c r="CU1253" s="1"/>
-      <c r="CV1253" s="1"/>
-      <c r="CW1253" s="1"/>
-      <c r="CY1253" s="1"/>
-      <c r="CZ1253" s="1"/>
-      <c r="DA1253" s="1"/>
-      <c r="DC1253" s="1"/>
-      <c r="DD1253" s="1"/>
-      <c r="DE1253" s="1"/>
-      <c r="DF1253" s="1"/>
-      <c r="DG1253" s="1"/>
-      <c r="DH1253" s="1"/>
-      <c r="DI1253" s="1"/>
-      <c r="DK1253" s="1"/>
-      <c r="DL1253" s="1"/>
-      <c r="DN1253" s="1"/>
-      <c r="DO1253" s="1"/>
-      <c r="DS1253" s="1"/>
-      <c r="EC1253" s="1"/>
+    <row r="1255" spans="39:242" x14ac:dyDescent="0.3">
+      <c r="CC1255" s="1"/>
+      <c r="CG1255" s="1"/>
+      <c r="CI1255" s="1"/>
+      <c r="CK1255" s="1"/>
+      <c r="CN1255" s="1"/>
+      <c r="CT1255" s="1"/>
     </row>
-    <row r="1256" spans="39:242" x14ac:dyDescent="0.3">
-      <c r="CC1256" s="1"/>
-      <c r="CG1256" s="1"/>
-      <c r="CI1256" s="1"/>
-      <c r="CK1256" s="1"/>
-      <c r="CN1256" s="1"/>
-      <c r="CT1256" s="1"/>
+    <row r="1296" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA1296" s="1"/>
     </row>
-    <row r="1297" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA1297" s="1"/>
+    <row r="1492" spans="129:129" x14ac:dyDescent="0.3">
+      <c r="DY1492" s="1"/>
     </row>
-    <row r="1493" spans="129:129" x14ac:dyDescent="0.3">
-      <c r="DY1493" s="1"/>
+    <row r="1556" spans="27:226" x14ac:dyDescent="0.3">
+      <c r="AA1556" s="1"/>
+      <c r="AC1556" s="1"/>
+      <c r="AJ1556" s="1"/>
+      <c r="BG1556" s="1"/>
+      <c r="BK1556" s="1"/>
+      <c r="EB1556" s="1"/>
+      <c r="FG1556" s="1"/>
+      <c r="GE1556" s="1"/>
+      <c r="HR1556" s="1"/>
     </row>
-    <row r="1557" spans="27:226" x14ac:dyDescent="0.3">
-      <c r="AA1557" s="1"/>
-      <c r="AC1557" s="1"/>
-      <c r="AJ1557" s="1"/>
-      <c r="BG1557" s="1"/>
-      <c r="BK1557" s="1"/>
-      <c r="EB1557" s="1"/>
-      <c r="FG1557" s="1"/>
-      <c r="GE1557" s="1"/>
-      <c r="HR1557" s="1"/>
+    <row r="1658" spans="27:187" x14ac:dyDescent="0.3">
+      <c r="AA1658" s="1"/>
+      <c r="AC1658" s="1"/>
+      <c r="BG1658" s="1"/>
+      <c r="GE1658" s="1"/>
     </row>
-    <row r="1659" spans="27:187" x14ac:dyDescent="0.3">
-      <c r="AA1659" s="1"/>
-      <c r="AC1659" s="1"/>
-      <c r="BG1659" s="1"/>
-      <c r="GE1659" s="1"/>
+    <row r="1673" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA1673" s="1"/>
     </row>
-    <row r="1674" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA1674" s="1"/>
+    <row r="1765" spans="31:50" x14ac:dyDescent="0.3">
+      <c r="AE1765" s="1"/>
+      <c r="AX1765" s="1"/>
     </row>
-    <row r="1766" spans="31:50" x14ac:dyDescent="0.3">
-      <c r="AE1766" s="1"/>
-      <c r="AX1766" s="1"/>
+    <row r="1864" spans="149:149" x14ac:dyDescent="0.3">
+      <c r="ES1864" s="1"/>
     </row>
-    <row r="1865" spans="149:149" x14ac:dyDescent="0.3">
-      <c r="ES1865" s="1"/>
+    <row r="1878" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD1878" s="1"/>
     </row>
-    <row r="1879" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD1879" s="1"/>
+    <row r="1994" spans="22:32" x14ac:dyDescent="0.3">
+      <c r="V1994" s="1"/>
+      <c r="W1994" s="1"/>
+      <c r="X1994" s="1"/>
+      <c r="Y1994" s="1"/>
+      <c r="AB1994" s="1"/>
+      <c r="AE1994" s="1"/>
+      <c r="AF1994" s="1"/>
     </row>
-    <row r="1995" spans="22:32" x14ac:dyDescent="0.3">
-      <c r="V1995" s="1"/>
-      <c r="W1995" s="1"/>
-      <c r="X1995" s="1"/>
-      <c r="Y1995" s="1"/>
-      <c r="AB1995" s="1"/>
-      <c r="AE1995" s="1"/>
-      <c r="AF1995" s="1"/>
+    <row r="2307" spans="129:129" x14ac:dyDescent="0.3">
+      <c r="DY2307" s="1"/>
     </row>
-    <row r="2308" spans="129:129" x14ac:dyDescent="0.3">
-      <c r="DY2308" s="1"/>
+    <row r="2386" spans="22:225" x14ac:dyDescent="0.3">
+      <c r="V2386" s="1"/>
+      <c r="Z2386" s="1"/>
+      <c r="AA2386" s="1"/>
+      <c r="AI2386" s="1"/>
+      <c r="AV2386" s="1"/>
+      <c r="AW2386" s="1"/>
+      <c r="BE2386" s="1"/>
+      <c r="BF2386" s="1"/>
+      <c r="BI2386" s="1"/>
+      <c r="BP2386" s="1"/>
+      <c r="BQ2386" s="1"/>
+      <c r="BV2386" s="1"/>
+      <c r="CF2386" s="1"/>
+      <c r="CI2386" s="1"/>
+      <c r="CL2386" s="1"/>
+      <c r="CS2386" s="1"/>
+      <c r="CV2386" s="1"/>
+      <c r="DI2386" s="1"/>
+      <c r="DT2386" s="1"/>
+      <c r="DY2386" s="1"/>
+      <c r="EI2386" s="1"/>
+      <c r="EQ2386" s="1"/>
+      <c r="ES2386" s="1"/>
+      <c r="EV2386" s="1"/>
+      <c r="FE2386" s="1"/>
+      <c r="FF2386" s="1"/>
+      <c r="FJ2386" s="1"/>
+      <c r="FK2386" s="1"/>
+      <c r="FP2386" s="1"/>
+      <c r="FX2386" s="1"/>
+      <c r="GB2386" s="1"/>
+      <c r="GD2386" s="1"/>
+      <c r="GH2386" s="1"/>
+      <c r="GP2386" s="1"/>
+      <c r="GS2386" s="1"/>
+      <c r="HJ2386" s="1"/>
+      <c r="HN2386" s="1"/>
+      <c r="HQ2386" s="1"/>
     </row>
-    <row r="2387" spans="22:225" x14ac:dyDescent="0.3">
-      <c r="V2387" s="1"/>
-      <c r="Z2387" s="1"/>
-      <c r="AA2387" s="1"/>
-      <c r="AI2387" s="1"/>
-      <c r="AV2387" s="1"/>
-      <c r="AW2387" s="1"/>
-      <c r="BE2387" s="1"/>
-      <c r="BF2387" s="1"/>
-      <c r="BI2387" s="1"/>
-      <c r="BP2387" s="1"/>
-      <c r="BQ2387" s="1"/>
-      <c r="BV2387" s="1"/>
-      <c r="CF2387" s="1"/>
-      <c r="CI2387" s="1"/>
-      <c r="CL2387" s="1"/>
-      <c r="CS2387" s="1"/>
-      <c r="CV2387" s="1"/>
-      <c r="DI2387" s="1"/>
-      <c r="DT2387" s="1"/>
-      <c r="DY2387" s="1"/>
-      <c r="EI2387" s="1"/>
-      <c r="EQ2387" s="1"/>
-      <c r="ES2387" s="1"/>
-      <c r="EV2387" s="1"/>
-      <c r="FE2387" s="1"/>
-      <c r="FF2387" s="1"/>
-      <c r="FJ2387" s="1"/>
-      <c r="FK2387" s="1"/>
-      <c r="FP2387" s="1"/>
-      <c r="FX2387" s="1"/>
-      <c r="GB2387" s="1"/>
-      <c r="GD2387" s="1"/>
-      <c r="GH2387" s="1"/>
-      <c r="GP2387" s="1"/>
-      <c r="GS2387" s="1"/>
-      <c r="HJ2387" s="1"/>
-      <c r="HN2387" s="1"/>
-      <c r="HQ2387" s="1"/>
+    <row r="2423" spans="36:101" x14ac:dyDescent="0.3">
+      <c r="AJ2423" s="1"/>
+      <c r="AR2423" s="1"/>
+      <c r="BB2423" s="1"/>
+      <c r="BO2423" s="1"/>
+      <c r="CP2423" s="1"/>
+      <c r="CQ2423" s="1"/>
+      <c r="CW2423" s="1"/>
     </row>
     <row r="2424" spans="36:101" x14ac:dyDescent="0.3">
       <c r="AJ2424" s="1"/>
       <c r="AR2424" s="1"/>
-      <c r="BB2424" s="1"/>
       <c r="BO2424" s="1"/>
       <c r="CP2424" s="1"/>
       <c r="CQ2424" s="1"/>
       <c r="CW2424" s="1"/>
     </row>
-    <row r="2425" spans="36:101" x14ac:dyDescent="0.3">
-      <c r="AJ2425" s="1"/>
-      <c r="AR2425" s="1"/>
-      <c r="BO2425" s="1"/>
-      <c r="CP2425" s="1"/>
-      <c r="CQ2425" s="1"/>
-      <c r="CW2425" s="1"/>
+    <row r="2492" spans="50:50" x14ac:dyDescent="0.3">
+      <c r="AX2492" s="1"/>
     </row>
-    <row r="2493" spans="50:50" x14ac:dyDescent="0.3">
-      <c r="AX2493" s="1"/>
+    <row r="2636" spans="36:222" x14ac:dyDescent="0.3">
+      <c r="AJ2636" s="1"/>
+      <c r="AS2636" s="1"/>
+      <c r="BF2636" s="1"/>
+      <c r="BM2636" s="1"/>
+      <c r="CJ2636" s="1"/>
+      <c r="CS2636" s="1"/>
+      <c r="DY2636" s="1"/>
+      <c r="EQ2636" s="1"/>
+      <c r="EW2636" s="1"/>
+      <c r="FX2636" s="1"/>
+      <c r="GD2636" s="1"/>
+      <c r="GP2636" s="1"/>
+      <c r="GS2636" s="1"/>
+      <c r="GY2636" s="1"/>
     </row>
-    <row r="2637" spans="36:222" x14ac:dyDescent="0.3">
-      <c r="AJ2637" s="1"/>
-      <c r="AS2637" s="1"/>
-      <c r="BF2637" s="1"/>
-      <c r="BM2637" s="1"/>
-      <c r="CJ2637" s="1"/>
-      <c r="CS2637" s="1"/>
-      <c r="DY2637" s="1"/>
-      <c r="EQ2637" s="1"/>
-      <c r="EW2637" s="1"/>
-      <c r="FX2637" s="1"/>
-      <c r="GD2637" s="1"/>
-      <c r="GP2637" s="1"/>
-      <c r="GS2637" s="1"/>
-      <c r="GY2637" s="1"/>
+    <row r="2639" spans="36:222" x14ac:dyDescent="0.3">
+      <c r="AJ2639" s="1"/>
+      <c r="AR2639" s="1"/>
+      <c r="AS2639" s="1"/>
+      <c r="BC2639" s="1"/>
+      <c r="BF2639" s="1"/>
+      <c r="BM2639" s="1"/>
+      <c r="BQ2639" s="1"/>
+      <c r="CD2639" s="1"/>
+      <c r="CJ2639" s="1"/>
+      <c r="CP2639" s="1"/>
+      <c r="CQ2639" s="1"/>
+      <c r="CS2639" s="1"/>
+      <c r="CW2639" s="1"/>
+      <c r="DY2639" s="1"/>
+      <c r="EQ2639" s="1"/>
+      <c r="EW2639" s="1"/>
+      <c r="FE2639" s="1"/>
+      <c r="GD2639" s="1"/>
+      <c r="GP2639" s="1"/>
+      <c r="GS2639" s="1"/>
+      <c r="HN2639" s="1"/>
     </row>
-    <row r="2640" spans="36:222" x14ac:dyDescent="0.3">
-      <c r="AJ2640" s="1"/>
-      <c r="AR2640" s="1"/>
-      <c r="AS2640" s="1"/>
-      <c r="BC2640" s="1"/>
-      <c r="BF2640" s="1"/>
-      <c r="BM2640" s="1"/>
-      <c r="BQ2640" s="1"/>
-      <c r="CD2640" s="1"/>
-      <c r="CJ2640" s="1"/>
-      <c r="CP2640" s="1"/>
-      <c r="CQ2640" s="1"/>
-      <c r="CS2640" s="1"/>
-      <c r="CW2640" s="1"/>
-      <c r="DY2640" s="1"/>
-      <c r="EQ2640" s="1"/>
-      <c r="EW2640" s="1"/>
-      <c r="FE2640" s="1"/>
-      <c r="GD2640" s="1"/>
-      <c r="GP2640" s="1"/>
-      <c r="GS2640" s="1"/>
-      <c r="HN2640" s="1"/>
+    <row r="2696" spans="59:59" x14ac:dyDescent="0.3">
+      <c r="BG2696" s="1"/>
     </row>
-    <row r="2697" spans="59:59" x14ac:dyDescent="0.3">
-      <c r="BG2697" s="1"/>
+    <row r="2713" spans="50:201" x14ac:dyDescent="0.3">
+      <c r="BF2713" s="1"/>
+      <c r="BM2713" s="1"/>
+      <c r="CJ2713" s="1"/>
+      <c r="DY2713" s="1"/>
+      <c r="EQ2713" s="1"/>
+      <c r="EW2713" s="1"/>
+      <c r="FX2713" s="1"/>
+      <c r="GD2713" s="1"/>
+      <c r="GP2713" s="1"/>
+      <c r="GS2713" s="1"/>
     </row>
-    <row r="2714" spans="50:201" x14ac:dyDescent="0.3">
-      <c r="BF2714" s="1"/>
-      <c r="BM2714" s="1"/>
-      <c r="CJ2714" s="1"/>
-      <c r="DY2714" s="1"/>
-      <c r="EQ2714" s="1"/>
-      <c r="EW2714" s="1"/>
-      <c r="FX2714" s="1"/>
-      <c r="GD2714" s="1"/>
-      <c r="GP2714" s="1"/>
-      <c r="GS2714" s="1"/>
+    <row r="2718" spans="50:201" x14ac:dyDescent="0.3">
+      <c r="AX2718" s="1"/>
     </row>
-    <row r="2719" spans="50:201" x14ac:dyDescent="0.3">
-      <c r="AX2719" s="1"/>
+    <row r="2720" spans="50:201" x14ac:dyDescent="0.3">
+      <c r="AX2720" s="1"/>
     </row>
-    <row r="2721" spans="50:201" x14ac:dyDescent="0.3">
-      <c r="AX2721" s="1"/>
+    <row r="2726" spans="58:201" x14ac:dyDescent="0.3">
+      <c r="BF2726" s="1"/>
+      <c r="BM2726" s="1"/>
+      <c r="CJ2726" s="1"/>
+      <c r="CS2726" s="1"/>
+      <c r="EW2726" s="1"/>
+      <c r="GD2726" s="1"/>
+      <c r="GS2726" s="1"/>
     </row>
-    <row r="2727" spans="50:201" x14ac:dyDescent="0.3">
+    <row r="2727" spans="58:201" x14ac:dyDescent="0.3">
       <c r="BF2727" s="1"/>
       <c r="BM2727" s="1"/>
       <c r="CJ2727" s="1"/>
@@ -19686,28 +19630,19 @@
       <c r="GD2727" s="1"/>
       <c r="GS2727" s="1"/>
     </row>
-    <row r="2728" spans="50:201" x14ac:dyDescent="0.3">
-      <c r="BF2728" s="1"/>
-      <c r="BM2728" s="1"/>
-      <c r="CJ2728" s="1"/>
-      <c r="CS2728" s="1"/>
-      <c r="EW2728" s="1"/>
-      <c r="GD2728" s="1"/>
-      <c r="GS2728" s="1"/>
+    <row r="2890" spans="50:50" x14ac:dyDescent="0.3">
+      <c r="AX2890" s="1"/>
     </row>
-    <row r="2891" spans="50:50" x14ac:dyDescent="0.3">
-      <c r="AX2891" s="1"/>
+    <row r="3133" spans="149:149" x14ac:dyDescent="0.3">
+      <c r="ES3133" s="1"/>
     </row>
     <row r="3134" spans="149:149" x14ac:dyDescent="0.3">
       <c r="ES3134" s="1"/>
     </row>
-    <row r="3135" spans="149:149" x14ac:dyDescent="0.3">
-      <c r="ES3135" s="1"/>
-    </row>
-    <row r="3148" spans="27:63" x14ac:dyDescent="0.3">
-      <c r="AA3148" s="1"/>
-      <c r="BG3148" s="1"/>
-      <c r="BK3148" s="1"/>
+    <row r="3147" spans="27:63" x14ac:dyDescent="0.3">
+      <c r="AA3147" s="1"/>
+      <c r="BG3147" s="1"/>
+      <c r="BK3147" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19715,9 +19650,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19867,19 +19805,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2B8340-481F-41E0-A263-27D4BAD65984}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19903,9 +19837,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2B8340-481F-41E0-A263-27D4BAD65984}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/RP_neg_sample.xlsx
+++ b/inst/extdata/RP_neg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\amp\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35D5BC-160A-4C3C-A324-A3103446D0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F5C82-A9E6-406F-A93F-DF9BC80412E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18552" yWindow="2868" windowWidth="20244" windowHeight="15984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP neg final" sheetId="1" r:id="rId1"/>
@@ -112,669 +112,6 @@
     <t>MS/MS spectrum</t>
   </si>
   <si>
-    <t>180103SR_Saliva_RP_neg_005</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_006</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_007</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_008</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_009</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_010</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_011</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_012</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_013</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_014</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_015</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_016</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_017</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_018</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_019</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_020</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_021</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_022</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_023</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_024</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_025</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_026</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_027</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_028</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_029</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_030</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_031</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_032</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_033</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_034</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_035</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_036</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_037</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_038</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_039</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_040</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_041</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_042</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_043</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_044</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_045</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_046</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_047</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_048</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_049</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_050</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_051</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_052</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_053</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_054</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_055</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_056</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_057</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_058</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_059</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_060</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_061</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_062</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_063</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_064</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_065</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_066</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_067</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_068</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_069</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_070</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_071</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_072</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_073</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_074</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_075</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_076</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_077</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_078</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_079</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_080</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_081</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_082</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_083</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_084</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_085</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_086</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_087</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_088</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_089</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_090</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_091</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_092</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_093</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_094</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_095</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_096</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_097</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_098</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_099</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_100</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_101</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_102</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_103</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_104</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_105</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_106</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_107</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_108</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_109</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_110</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_111</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_112</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_113</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_114</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_115</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_116</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_117</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_118</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_119</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_120</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_121</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_122</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_123</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_124</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_125</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_126</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_127</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_128</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_129</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_130</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_131</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_132</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_133</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_134</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_135</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_136</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_137</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_138</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_139</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_140</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_141</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_142</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_143</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_144</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_145</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_146</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_147</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_148</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_149</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_150</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_151</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_152</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_153</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_154</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_155</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_156</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_157</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_158</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_159</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_160</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_161</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_162</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_163</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_164</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_165</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_166</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_167</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_168</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_169</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_170</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_171</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_172</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_173</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_174</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_175</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_176</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_177</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_178</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_179</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_180</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_181</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_182</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_183</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_184</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_185</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_186</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_187</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_188</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_189</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_190</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_191</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_192</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_193</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_194</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_195</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_196</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_197</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_198</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_199</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_200</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_201</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_202</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_203</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_204</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_205</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_206</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_207</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_208</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_209</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_210</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_211</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_212</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_213</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_214</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_215</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_216</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_217</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_218</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_219</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_220</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_221</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_224</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_225</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_226</t>
-  </si>
-  <si>
-    <t>180103SR_Saliva_RP_neg_227</t>
-  </si>
-  <si>
     <t>w/o MS2:Nitric acid</t>
   </si>
   <si>
@@ -956,6 +293,669 @@
   </si>
   <si>
     <t>102.93507:18911 103.93842:0 104.94178:7930</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_005</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_006</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_007</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_008</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_009</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_010</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_011</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_012</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_013</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_014</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_015</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_016</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_017</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_018</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_019</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_020</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_021</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_022</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_023</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_024</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_025</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_026</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_027</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_028</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_029</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_030</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_031</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_032</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_033</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_034</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_035</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_036</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_037</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_038</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_039</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_040</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_041</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_042</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_043</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_044</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_045</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_046</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_047</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_048</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_049</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_050</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_051</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_052</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_053</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_054</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_055</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_056</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_057</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_058</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_059</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_060</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_061</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_062</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_063</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_064</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_065</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_066</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_067</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_068</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_069</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_070</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_071</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_072</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_073</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_074</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_075</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_076</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_077</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_078</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_079</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_080</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_081</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_082</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_083</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_084</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_085</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_086</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_087</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_088</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_089</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_090</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_091</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_092</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_093</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_094</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_095</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_096</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_097</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_098</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_099</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_100</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_101</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_102</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_103</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_104</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_105</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_106</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_107</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_108</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_109</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_110</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_111</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_112</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_113</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_114</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_115</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_116</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_117</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_118</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_119</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_120</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_121</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_122</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_123</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_124</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_125</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_126</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_127</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_128</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_129</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_130</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_131</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_132</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_133</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_134</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_135</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_136</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_137</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_138</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_139</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_140</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_141</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_142</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_143</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_144</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_145</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_146</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_147</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_148</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_149</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_150</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_151</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_152</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_153</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_154</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_155</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_156</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_157</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_158</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_159</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_160</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_161</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_162</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_163</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_164</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_165</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_166</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_167</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_168</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_169</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_170</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_171</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_172</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_173</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_174</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_175</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_176</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_177</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_178</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_179</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_180</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_181</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_182</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_183</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_184</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_185</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_186</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_187</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_188</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_189</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_190</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_191</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_192</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_193</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_194</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_195</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_196</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_197</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_198</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_199</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_200</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_201</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_202</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_203</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_204</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_205</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_206</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_207</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_208</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_209</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_210</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_211</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_212</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_213</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_214</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_215</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_216</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_217</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_218</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_219</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_220</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_221</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_224</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_225</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_226</t>
+  </si>
+  <si>
+    <t>Example_project_RP_neg_227</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:IH3147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3874,667 +3874,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AE4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AI4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AJ4" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AL4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AM4" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="AN4" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="AO4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AP4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AQ4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AR4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AS4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="AT4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="AU4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AV4" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AW4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="AX4" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="AY4" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="AZ4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="BA4" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="BB4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="BC4" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="BD4" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="BE4" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BF4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="BG4" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="BH4" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="BJ4" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="BK4" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="BL4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="BM4" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="BN4" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="BO4" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="BP4" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="BQ4" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="BR4" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="BS4" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="BT4" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="BU4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="BV4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="BW4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="BX4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="BY4" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="BZ4" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="CA4" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="CB4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="CC4" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="CD4" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="CE4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="CF4" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="CG4" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="CH4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="CI4" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="CJ4" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="CK4" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="CL4" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="CM4" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="CN4" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="CO4" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="CP4" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="CQ4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="CR4" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="CS4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="CT4" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="CU4" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="CV4" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="CW4" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="CX4" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="CY4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="CZ4" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="DA4" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="DB4" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="DC4" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="DD4" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="DE4" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="DF4" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="DG4" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="DH4" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="DI4" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="DJ4" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="DK4" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="DL4" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="DM4" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="DN4" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="DO4" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="DP4" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="DQ4" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="DR4" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="DS4" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="DT4" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="DU4" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="DV4" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="DW4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="DX4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="DY4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="DZ4" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="EA4" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="EB4" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="EC4" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="ED4" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="EE4" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="EF4" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="EG4" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="EH4" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="EI4" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="EJ4" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="EK4" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="EL4" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="EM4" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="EN4" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="EO4" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="EP4" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="EQ4" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="ER4" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="ES4" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="ET4" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="EU4" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="EV4" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="EW4" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="EX4" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="EY4" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="EZ4" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="FA4" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="FB4" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="FC4" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="FD4" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="FE4" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="FF4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="FG4" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="FH4" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="FI4" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="FJ4" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="FK4" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="FL4" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="FM4" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="FN4" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="FO4" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="FP4" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="FQ4" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="FR4" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="FS4" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="FT4" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="FU4" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="FV4" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="FW4" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="FX4" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="FY4" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="FZ4" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="GA4" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="GB4" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="GC4" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="GD4" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="GE4" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="GF4" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="GG4" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="GH4" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="GI4" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="GJ4" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="GK4" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="GL4" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="GM4" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="GN4" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="GO4" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="GP4" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="GQ4" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="GR4" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="GS4" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="GT4" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="GU4" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="GV4" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="GW4" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="GX4" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="GY4" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="GZ4" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="HA4" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="HB4" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="HC4" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="HD4" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="HE4" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="HF4" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="HG4" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="HH4" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="HI4" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="HJ4" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="HK4" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="HL4" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="HM4" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="HN4" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="HO4" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="HP4" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="HQ4" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="HR4" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="HS4" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="HT4" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="HU4" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="HV4" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="HW4" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="HX4" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="HY4" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="HZ4" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="IA4" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="IB4" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="IC4" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="ID4" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="IE4" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="IF4" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="IG4" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="IH4" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4548,10 +4548,10 @@
         <v>61.988</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0.52017939999999996</v>
@@ -4560,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -4584,10 +4584,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="T5" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="V5">
         <v>72584.33</v>
@@ -5264,10 +5264,10 @@
         <v>68.995400000000004</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5276,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -5303,10 +5303,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="T6" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="V6">
         <v>48366.68</v>
@@ -5983,10 +5983,10 @@
         <v>68.995400000000004</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0.62780270000000005</v>
@@ -5995,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -6022,10 +6022,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="V7">
         <v>52747.79</v>
@@ -6702,10 +6702,10 @@
         <v>73.0291</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0.56053810000000004</v>
@@ -6714,13 +6714,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -6738,10 +6738,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="T8" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="V8">
         <v>9517.4500000000007</v>
@@ -7418,10 +7418,10 @@
         <v>73.970100000000002</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0.43946190000000002</v>
@@ -7430,16 +7430,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -7457,13 +7457,13 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="T9" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="V9">
         <v>289218.8</v>
@@ -8140,13 +8140,13 @@
         <v>78.958799999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>0.39910309999999999</v>
@@ -8155,16 +8155,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -8182,10 +8182,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T10" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="V10">
         <v>149194.29999999999</v>
@@ -8862,13 +8862,13 @@
         <v>78.958799999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>0.52466369999999996</v>
@@ -8877,16 +8877,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -8904,13 +8904,13 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="T11" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="V11">
         <v>288556.59999999998</v>
@@ -9587,10 +9587,10 @@
         <v>89.024199999999993</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0.73094170000000003</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9617,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="T12" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="V12">
         <v>108756.6</v>
@@ -10297,10 +10297,10 @@
         <v>94.987200000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0.98654710000000001</v>
@@ -10309,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10333,10 +10333,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="T13" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="V13">
         <v>470330.7</v>
@@ -11013,10 +11013,10 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0.73991030000000002</v>
@@ -11025,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11049,10 +11049,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="T14" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
       <c r="V14">
         <v>811237.8</v>
@@ -11729,10 +11729,10 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0.95515689999999998</v>
@@ -11741,13 +11741,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11765,13 +11765,13 @@
         <v>1000</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="T15" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="U15" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="V15">
         <v>1553112</v>
@@ -12448,10 +12448,10 @@
         <v>96.968599999999995</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>0.47982059999999999</v>
@@ -12460,16 +12460,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -12487,10 +12487,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="T16" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="V16">
         <v>37773.879999999997</v>
@@ -13167,10 +13167,10 @@
         <v>96.969099999999997</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>0.88340810000000003</v>
@@ -13179,16 +13179,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -13206,10 +13206,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="T17" t="s">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="V17">
         <v>17555.810000000001</v>
@@ -13886,10 +13886,10 @@
         <v>98.951400000000007</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -13898,13 +13898,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13922,10 +13922,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="T18" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="V18">
         <v>32472.5</v>
@@ -14602,10 +14602,10 @@
         <v>98.957499999999996</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>0.53363229999999995</v>
@@ -14614,16 +14614,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -14641,10 +14641,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="T19" t="s">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="V19">
         <v>44646.37</v>
@@ -15321,10 +15321,10 @@
         <v>99.008099999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>0.3049327</v>
@@ -15333,13 +15333,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15357,10 +15357,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="T20" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="V20">
         <v>29284.44</v>
@@ -16037,10 +16037,10 @@
         <v>99.9255</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>0.78923770000000004</v>
@@ -16049,16 +16049,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -16076,10 +16076,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="T21" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="V21">
         <v>105994.9</v>
@@ -16756,10 +16756,10 @@
         <v>100.93340000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="G22">
         <v>0.73094170000000003</v>
@@ -16768,16 +16768,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -16795,10 +16795,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="T22" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="V22">
         <v>45035.78</v>
@@ -17475,13 +17475,13 @@
         <v>100.93340000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="G23">
         <v>0.43049330000000002</v>
@@ -17490,16 +17490,16 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -17517,13 +17517,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="T23" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="U23" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="V23">
         <v>340617.8</v>
@@ -18200,10 +18200,10 @@
         <v>102.9355</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>0.8475336</v>
@@ -18212,16 +18212,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -18239,10 +18239,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="T24" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="V24">
         <v>14987.76</v>
@@ -19650,15 +19650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010038235D0575450E4D9009B3EC36509618" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="d43fa768a87849c7a999e5e5e465285d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7746a6f8-0bb5-496b-bf25-a73b1813b983" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6e9d1849f57ad8b3a2dd183d329834d" ns2:_="">
     <xsd:import namespace="7746a6f8-0bb5-496b-bf25-a73b1813b983"/>
@@ -19804,6 +19795,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19811,14 +19811,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A9ED0C-E4AC-4226-B8E4-9B7D01B53871}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19836,6 +19828,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3929B2-6DC5-47B0-9B4F-8A9F81EC2CC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2B8340-481F-41E0-A263-27D4BAD65984}">
   <ds:schemaRefs>

--- a/inst/extdata/RP_neg_sample.xlsx
+++ b/inst/extdata/RP_neg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\notame\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F5C82-A9E6-406F-A93F-DF9BC80412E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E0FB0-7539-4785-BA05-503D3F42E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="2064" windowWidth="34884" windowHeight="20652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="5712" windowWidth="25620" windowHeight="18804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP neg final" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>73.96976:2465 74.97311:275 75.97647:0</t>
   </si>
   <si>
-    <t>38.487 (100), 25.664 (100), 65.21 (98), 22.351 (98), 54.333 (97), 63.433 (96), 36.992 (94), 46.533 (94), 32.899 (90), 53.309 (83), 31.708 (82), 64.623 (81), 37.939 (80), 41.989 (72), 57.972 (70), 46.76 (70), 60.248 (70), 46.798 (69), 63.937 (66), 33.704 (65), 49.076 (64), 25.904 (62), 32.623 (62), 26.284 (62), 41.369 (61), 68.521 (59), 54.25 (58), 35.678 (58), 41.263 (58), 33.804 (58), 34.703 (57), 67.119 (57), 21.695 (56), 44.676 (52), 35.391 (51), 28 (47), 44.95 (46), 28.612 (45), 58.418 (44), 34.943 (43), 28.465 (43), 38.643 (42), 50.418 (41), 48.533 (40), 53.716 (40), 66.87 (39), 22.13 (39), 23.653 (38), 62.546 (37), 55.257 (37), 46.985 (37), 53.188 (36), 44.275 (34), 34.224 (34), 71.174 (33), 64.39 (33), 58.288 (33), 40.589 (31), 38.812 (30), 61.681 (30), 24.575 (30), 47.013 (30), 38.853 (29), 71.987 (27), 48.357 (27), 32.006 (26), 20.613 (25), 68.461 (24), 31.255 (23), 38.963 (22), 27.392 (21), 36.567 (21), 23.187 (18), 69.369 (18), 66.845 (18), 37.364 (17), 36.239 (16), 31.675 (15), 67.773 (15), 28.254 (15), 22.69 (14), 37.911 (14), 51.525 (13), 52.507 (12), 50.432 (10), 33.89 (9), 41.066 (9), 35.641 (9), 54.364 (8), 46.781 (7), 57.994 (7), 63.96 (7), 46.821 (7), 65.99 (6), 55.271 (6), 22.968 (6), 37.018 (6), 25.686 (6), 46.559 (5), 22.372 (5), 67.169 (5), 63.462 (5), 31.724 (5), 68.544 (5), 73.461 (4), 58.006 (4), 32.922 (4), 30.91 (4), 28.48 (4), 60.272 (4), 26.298 (4), 35.696 (4), 63.48 (4), 41.287 (3), 67.155 (3), 41.388 (3), 44.298 (3), 58.45 (3), 54.283 (3), 28.635 (3), 24.592 (3), 31.739 (3), 30.072 (2), 37.024 (2), 47.003 (2), 44.703 (2), 53.221 (2), 46.847 (2), 37.963 (2), 58.304 (2), 21.715 (2)</t>
-  </si>
-  <si>
     <t>[M-H2O-H]-</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>78.95874:5522 79.96209:0 80.96545:0</t>
   </si>
   <si>
-    <t>69.518 (100), 25.885 (94), 62.964 (94), 28.769 (93), 54.754 (92), 65.875 (92), 21.467 (91), 27.968 (85), 32.767 (79), 77.725 (77), 39.921 (74), 60.828 (74), 23.865 (73), 61.407 (71), 23.902 (69), 49.373 (69), 44.217 (66), 23.894 (64), 67.995 (64), 54.047 (60), 34.406 (59), 60.874 (58), 37.652 (57), 71.608 (56), 31.79 (56), 30.662 (54), 52.106 (53), 31.597 (45), 45.909 (45), 40.326 (44), 22.684 (43), 77.512 (42), 55.371 (41), 22.661 (40), 21.333 (40), 37.005 (40), 56.424 (39), 55.151 (37), 35.064 (36), 51.339 (35), 54.171 (34), 67.887 (34), 36.111 (32), 29.501 (32), 35.416 (30), 52.836 (26), 77.836 (25), 20.178 (24), 75.855 (23), 44.933 (23), 28.795 (22), 53.368 (22), 56.613 (21), 33.35 (20), 20.299 (19), 26.831 (19), 49.787 (16), 37.526 (16), 21.475 (16), 50.569 (15), 49.131 (14), 21.405 (14), 64.265 (12), 49.691 (11), 62.995 (10), 52.431 (10), 23.912 (7), 54.797 (7), 25.899 (7), 69.8 (7), 54.785 (7), 56.627 (6), 60.715 (6), 65.901 (6), 21.347 (4), 54.078 (4), 61.433 (4), 63.027 (4), 55.427 (3), 71.637 (3), 45.927 (3), 23.924 (3), 77.763 (3), 52.138 (3), 49.402 (3), 25.136 (3), 77.536 (3), 30.681 (2), 25.92 (2), 44.263 (2), 55.416 (2), 64.277 (2), 79.443 (2), 37.026 (2), 27.996 (2), 51.376 (2)</t>
-  </si>
-  <si>
     <t>w/o MS2:NTBC Lactic acid</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>96.96815:58738 97.9715:242 98.97486:1071</t>
   </si>
   <si>
-    <t>62.963 (100), 96.958 (40), 78.957 (40), 41.493 (39), 50.701 (39), 68.827 (28), 86.573 (25), 85.503 (25), 24.349 (21), 85.803 (20), 74.046 (19), 83.916 (18), 59.552 (17), 78.832 (17), 24.293 (17), 50.26 (17), 80.798 (15), 68.95 (13), 75.02 (9), 57.692 (8), 92.841 (8), 90.012 (8), 62.997 (7), 34.645 (7), 69.178 (7), 56.265 (7), 26.227 (7), 95.913 (5), 63.007 (4), 24.184 (4), 50.729 (3), 78.995 (3), 50.738 (3), 24.365 (3), 83.933 (2), 41.524 (2), 97.028 (2), 68.861 (2), 79.004 (2), 59.588 (1), 74.078 (1), 85.543 (1), 50.768 (1)</t>
-  </si>
-  <si>
     <t>96.96826:34285 97.97161:0 98.97497:1625</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>100.93361:46337 101.93696:6603 102.94032:2852</t>
   </si>
   <si>
-    <t>89.922 (100), 36.716 (71), 27.657 (70), 46.402 (59), 80.226 (59), 81.853 (58), 81.37 (55), 84.912 (50), 22.767 (49), 29.27 (49), 45.67 (44), 29.962 (44), 67.84 (43), 48.216 (40), 83.776 (39), 27.905 (32), 74.436 (32), 69.288 (32), 58.727 (30), 40.91 (30), 82.231 (28), 37.642 (27), 84.692 (26), 87.236 (26), 24.544 (22), 35.66 (21), 69.667 (21), 99.491 (20), 52.031 (17), 44.569 (16), 83.098 (14), 87.007 (12), 28.174 (10), 36.311 (9), 81.881 (8), 46.416 (7), 81.386 (6), 22.776 (6), 36.741 (4), 80.265 (4), 40.928 (3), 46.43 (3), 29.302 (3), 27.92 (2), 74.461 (2), 37.677 (2), 89.977 (2), 27.687 (2)</t>
-  </si>
-  <si>
     <t>102.93507:18911 103.93842:0 104.94178:7930</t>
   </si>
   <si>
@@ -956,6 +944,18 @@
   </si>
   <si>
     <t>Example_project_RP_neg_227</t>
+  </si>
+  <si>
+    <t>22.351:178 33.804:101 38.487:183 53.188:53</t>
+  </si>
+  <si>
+    <t>28.769:53 44.933:42 52.106:89 69.518:140</t>
+  </si>
+  <si>
+    <t>22.776:13 52.031:60 81.881:103 83.098:20 89.922:111</t>
+  </si>
+  <si>
+    <t>50.729:98 62.963:156 79.004:37 85.543:44</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:IH3147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3874,667 +3874,667 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AC4" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AD4" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AI4" t="s">
         <v>100</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>102</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AM4" t="s">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AN4" t="s">
         <v>105</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AO4" t="s">
         <v>106</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AP4" t="s">
         <v>107</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>108</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AR4" t="s">
         <v>109</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AS4" t="s">
         <v>110</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AT4" t="s">
         <v>111</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AU4" t="s">
         <v>112</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AV4" t="s">
         <v>113</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>114</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AX4" t="s">
         <v>115</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>116</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AZ4" t="s">
         <v>117</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>118</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BB4" t="s">
         <v>119</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BC4" t="s">
         <v>120</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BD4" t="s">
         <v>121</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BE4" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BF4" t="s">
         <v>123</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BG4" t="s">
         <v>124</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BH4" t="s">
         <v>125</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>126</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BJ4" t="s">
         <v>127</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BK4" t="s">
         <v>128</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BL4" t="s">
         <v>129</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BM4" t="s">
         <v>130</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BN4" t="s">
         <v>131</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BO4" t="s">
         <v>132</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BP4" t="s">
         <v>133</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BQ4" t="s">
         <v>134</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BR4" t="s">
         <v>135</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BS4" t="s">
         <v>136</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BT4" t="s">
         <v>137</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BU4" t="s">
         <v>138</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BV4" t="s">
         <v>139</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BW4" t="s">
         <v>140</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BX4" t="s">
         <v>141</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BY4" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BZ4" t="s">
         <v>143</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="CA4" t="s">
         <v>144</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CB4" t="s">
         <v>145</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="CC4" t="s">
         <v>146</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CD4" t="s">
         <v>147</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CE4" t="s">
         <v>148</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CF4" t="s">
         <v>149</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CG4" t="s">
         <v>150</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CH4" t="s">
         <v>151</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CI4" t="s">
         <v>152</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CJ4" t="s">
         <v>153</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CK4" t="s">
         <v>154</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CL4" t="s">
         <v>155</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CM4" t="s">
         <v>156</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CN4" t="s">
         <v>157</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CO4" t="s">
         <v>158</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CP4" t="s">
         <v>159</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CQ4" t="s">
         <v>160</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CR4" t="s">
         <v>161</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CS4" t="s">
         <v>162</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CT4" t="s">
         <v>163</v>
       </c>
-      <c r="CQ4" t="s">
+      <c r="CU4" t="s">
         <v>164</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CV4" t="s">
         <v>165</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CW4" t="s">
         <v>166</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CX4" t="s">
         <v>167</v>
       </c>
-      <c r="CU4" t="s">
+      <c r="CY4" t="s">
         <v>168</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CZ4" t="s">
         <v>169</v>
       </c>
-      <c r="CW4" t="s">
+      <c r="DA4" t="s">
         <v>170</v>
       </c>
-      <c r="CX4" t="s">
+      <c r="DB4" t="s">
         <v>171</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="DC4" t="s">
         <v>172</v>
       </c>
-      <c r="CZ4" t="s">
+      <c r="DD4" t="s">
         <v>173</v>
       </c>
-      <c r="DA4" t="s">
+      <c r="DE4" t="s">
         <v>174</v>
       </c>
-      <c r="DB4" t="s">
+      <c r="DF4" t="s">
         <v>175</v>
       </c>
-      <c r="DC4" t="s">
+      <c r="DG4" t="s">
         <v>176</v>
       </c>
-      <c r="DD4" t="s">
+      <c r="DH4" t="s">
         <v>177</v>
       </c>
-      <c r="DE4" t="s">
+      <c r="DI4" t="s">
         <v>178</v>
       </c>
-      <c r="DF4" t="s">
+      <c r="DJ4" t="s">
         <v>179</v>
       </c>
-      <c r="DG4" t="s">
+      <c r="DK4" t="s">
         <v>180</v>
       </c>
-      <c r="DH4" t="s">
+      <c r="DL4" t="s">
         <v>181</v>
       </c>
-      <c r="DI4" t="s">
+      <c r="DM4" t="s">
         <v>182</v>
       </c>
-      <c r="DJ4" t="s">
+      <c r="DN4" t="s">
         <v>183</v>
       </c>
-      <c r="DK4" t="s">
+      <c r="DO4" t="s">
         <v>184</v>
       </c>
-      <c r="DL4" t="s">
+      <c r="DP4" t="s">
         <v>185</v>
       </c>
-      <c r="DM4" t="s">
+      <c r="DQ4" t="s">
         <v>186</v>
       </c>
-      <c r="DN4" t="s">
+      <c r="DR4" t="s">
         <v>187</v>
       </c>
-      <c r="DO4" t="s">
+      <c r="DS4" t="s">
         <v>188</v>
       </c>
-      <c r="DP4" t="s">
+      <c r="DT4" t="s">
         <v>189</v>
       </c>
-      <c r="DQ4" t="s">
+      <c r="DU4" t="s">
         <v>190</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="DV4" t="s">
         <v>191</v>
       </c>
-      <c r="DS4" t="s">
+      <c r="DW4" t="s">
         <v>192</v>
       </c>
-      <c r="DT4" t="s">
+      <c r="DX4" t="s">
         <v>193</v>
       </c>
-      <c r="DU4" t="s">
+      <c r="DY4" t="s">
         <v>194</v>
       </c>
-      <c r="DV4" t="s">
+      <c r="DZ4" t="s">
         <v>195</v>
       </c>
-      <c r="DW4" t="s">
+      <c r="EA4" t="s">
         <v>196</v>
       </c>
-      <c r="DX4" t="s">
+      <c r="EB4" t="s">
         <v>197</v>
       </c>
-      <c r="DY4" t="s">
+      <c r="EC4" t="s">
         <v>198</v>
       </c>
-      <c r="DZ4" t="s">
+      <c r="ED4" t="s">
         <v>199</v>
       </c>
-      <c r="EA4" t="s">
+      <c r="EE4" t="s">
         <v>200</v>
       </c>
-      <c r="EB4" t="s">
+      <c r="EF4" t="s">
         <v>201</v>
       </c>
-      <c r="EC4" t="s">
+      <c r="EG4" t="s">
         <v>202</v>
       </c>
-      <c r="ED4" t="s">
+      <c r="EH4" t="s">
         <v>203</v>
       </c>
-      <c r="EE4" t="s">
+      <c r="EI4" t="s">
         <v>204</v>
       </c>
-      <c r="EF4" t="s">
+      <c r="EJ4" t="s">
         <v>205</v>
       </c>
-      <c r="EG4" t="s">
+      <c r="EK4" t="s">
         <v>206</v>
       </c>
-      <c r="EH4" t="s">
+      <c r="EL4" t="s">
         <v>207</v>
       </c>
-      <c r="EI4" t="s">
+      <c r="EM4" t="s">
         <v>208</v>
       </c>
-      <c r="EJ4" t="s">
+      <c r="EN4" t="s">
         <v>209</v>
       </c>
-      <c r="EK4" t="s">
+      <c r="EO4" t="s">
         <v>210</v>
       </c>
-      <c r="EL4" t="s">
+      <c r="EP4" t="s">
         <v>211</v>
       </c>
-      <c r="EM4" t="s">
+      <c r="EQ4" t="s">
         <v>212</v>
       </c>
-      <c r="EN4" t="s">
+      <c r="ER4" t="s">
         <v>213</v>
       </c>
-      <c r="EO4" t="s">
+      <c r="ES4" t="s">
         <v>214</v>
       </c>
-      <c r="EP4" t="s">
+      <c r="ET4" t="s">
         <v>215</v>
       </c>
-      <c r="EQ4" t="s">
+      <c r="EU4" t="s">
         <v>216</v>
       </c>
-      <c r="ER4" t="s">
+      <c r="EV4" t="s">
         <v>217</v>
       </c>
-      <c r="ES4" t="s">
+      <c r="EW4" t="s">
         <v>218</v>
       </c>
-      <c r="ET4" t="s">
+      <c r="EX4" t="s">
         <v>219</v>
       </c>
-      <c r="EU4" t="s">
+      <c r="EY4" t="s">
         <v>220</v>
       </c>
-      <c r="EV4" t="s">
+      <c r="EZ4" t="s">
         <v>221</v>
       </c>
-      <c r="EW4" t="s">
+      <c r="FA4" t="s">
         <v>222</v>
       </c>
-      <c r="EX4" t="s">
+      <c r="FB4" t="s">
         <v>223</v>
       </c>
-      <c r="EY4" t="s">
+      <c r="FC4" t="s">
         <v>224</v>
       </c>
-      <c r="EZ4" t="s">
+      <c r="FD4" t="s">
         <v>225</v>
       </c>
-      <c r="FA4" t="s">
+      <c r="FE4" t="s">
         <v>226</v>
       </c>
-      <c r="FB4" t="s">
+      <c r="FF4" t="s">
         <v>227</v>
       </c>
-      <c r="FC4" t="s">
+      <c r="FG4" t="s">
         <v>228</v>
       </c>
-      <c r="FD4" t="s">
+      <c r="FH4" t="s">
         <v>229</v>
       </c>
-      <c r="FE4" t="s">
+      <c r="FI4" t="s">
         <v>230</v>
       </c>
-      <c r="FF4" t="s">
+      <c r="FJ4" t="s">
         <v>231</v>
       </c>
-      <c r="FG4" t="s">
+      <c r="FK4" t="s">
         <v>232</v>
       </c>
-      <c r="FH4" t="s">
+      <c r="FL4" t="s">
         <v>233</v>
       </c>
-      <c r="FI4" t="s">
+      <c r="FM4" t="s">
         <v>234</v>
       </c>
-      <c r="FJ4" t="s">
+      <c r="FN4" t="s">
         <v>235</v>
       </c>
-      <c r="FK4" t="s">
+      <c r="FO4" t="s">
         <v>236</v>
       </c>
-      <c r="FL4" t="s">
+      <c r="FP4" t="s">
         <v>237</v>
       </c>
-      <c r="FM4" t="s">
+      <c r="FQ4" t="s">
         <v>238</v>
       </c>
-      <c r="FN4" t="s">
+      <c r="FR4" t="s">
         <v>239</v>
       </c>
-      <c r="FO4" t="s">
+      <c r="FS4" t="s">
         <v>240</v>
       </c>
-      <c r="FP4" t="s">
+      <c r="FT4" t="s">
         <v>241</v>
       </c>
-      <c r="FQ4" t="s">
+      <c r="FU4" t="s">
         <v>242</v>
       </c>
-      <c r="FR4" t="s">
+      <c r="FV4" t="s">
         <v>243</v>
       </c>
-      <c r="FS4" t="s">
+      <c r="FW4" t="s">
         <v>244</v>
       </c>
-      <c r="FT4" t="s">
+      <c r="FX4" t="s">
         <v>245</v>
       </c>
-      <c r="FU4" t="s">
+      <c r="FY4" t="s">
         <v>246</v>
       </c>
-      <c r="FV4" t="s">
+      <c r="FZ4" t="s">
         <v>247</v>
       </c>
-      <c r="FW4" t="s">
+      <c r="GA4" t="s">
         <v>248</v>
       </c>
-      <c r="FX4" t="s">
+      <c r="GB4" t="s">
         <v>249</v>
       </c>
-      <c r="FY4" t="s">
+      <c r="GC4" t="s">
         <v>250</v>
       </c>
-      <c r="FZ4" t="s">
+      <c r="GD4" t="s">
         <v>251</v>
       </c>
-      <c r="GA4" t="s">
+      <c r="GE4" t="s">
         <v>252</v>
       </c>
-      <c r="GB4" t="s">
+      <c r="GF4" t="s">
         <v>253</v>
       </c>
-      <c r="GC4" t="s">
+      <c r="GG4" t="s">
         <v>254</v>
       </c>
-      <c r="GD4" t="s">
+      <c r="GH4" t="s">
         <v>255</v>
       </c>
-      <c r="GE4" t="s">
+      <c r="GI4" t="s">
         <v>256</v>
       </c>
-      <c r="GF4" t="s">
+      <c r="GJ4" t="s">
         <v>257</v>
       </c>
-      <c r="GG4" t="s">
+      <c r="GK4" t="s">
         <v>258</v>
       </c>
-      <c r="GH4" t="s">
+      <c r="GL4" t="s">
         <v>259</v>
       </c>
-      <c r="GI4" t="s">
+      <c r="GM4" t="s">
         <v>260</v>
       </c>
-      <c r="GJ4" t="s">
+      <c r="GN4" t="s">
         <v>261</v>
       </c>
-      <c r="GK4" t="s">
+      <c r="GO4" t="s">
         <v>262</v>
       </c>
-      <c r="GL4" t="s">
+      <c r="GP4" t="s">
         <v>263</v>
       </c>
-      <c r="GM4" t="s">
+      <c r="GQ4" t="s">
         <v>264</v>
       </c>
-      <c r="GN4" t="s">
+      <c r="GR4" t="s">
         <v>265</v>
       </c>
-      <c r="GO4" t="s">
+      <c r="GS4" t="s">
         <v>266</v>
       </c>
-      <c r="GP4" t="s">
+      <c r="GT4" t="s">
         <v>267</v>
       </c>
-      <c r="GQ4" t="s">
+      <c r="GU4" t="s">
         <v>268</v>
       </c>
-      <c r="GR4" t="s">
+      <c r="GV4" t="s">
         <v>269</v>
       </c>
-      <c r="GS4" t="s">
+      <c r="GW4" t="s">
         <v>270</v>
       </c>
-      <c r="GT4" t="s">
+      <c r="GX4" t="s">
         <v>271</v>
       </c>
-      <c r="GU4" t="s">
+      <c r="GY4" t="s">
         <v>272</v>
       </c>
-      <c r="GV4" t="s">
+      <c r="GZ4" t="s">
         <v>273</v>
       </c>
-      <c r="GW4" t="s">
+      <c r="HA4" t="s">
         <v>274</v>
       </c>
-      <c r="GX4" t="s">
+      <c r="HB4" t="s">
         <v>275</v>
       </c>
-      <c r="GY4" t="s">
+      <c r="HC4" t="s">
         <v>276</v>
       </c>
-      <c r="GZ4" t="s">
+      <c r="HD4" t="s">
         <v>277</v>
       </c>
-      <c r="HA4" t="s">
+      <c r="HE4" t="s">
         <v>278</v>
       </c>
-      <c r="HB4" t="s">
+      <c r="HF4" t="s">
         <v>279</v>
       </c>
-      <c r="HC4" t="s">
+      <c r="HG4" t="s">
         <v>280</v>
       </c>
-      <c r="HD4" t="s">
+      <c r="HH4" t="s">
         <v>281</v>
       </c>
-      <c r="HE4" t="s">
+      <c r="HI4" t="s">
         <v>282</v>
       </c>
-      <c r="HF4" t="s">
+      <c r="HJ4" t="s">
         <v>283</v>
       </c>
-      <c r="HG4" t="s">
+      <c r="HK4" t="s">
         <v>284</v>
       </c>
-      <c r="HH4" t="s">
+      <c r="HL4" t="s">
         <v>285</v>
       </c>
-      <c r="HI4" t="s">
+      <c r="HM4" t="s">
         <v>286</v>
       </c>
-      <c r="HJ4" t="s">
+      <c r="HN4" t="s">
         <v>287</v>
       </c>
-      <c r="HK4" t="s">
+      <c r="HO4" t="s">
         <v>288</v>
       </c>
-      <c r="HL4" t="s">
+      <c r="HP4" t="s">
         <v>289</v>
       </c>
-      <c r="HM4" t="s">
+      <c r="HQ4" t="s">
         <v>290</v>
       </c>
-      <c r="HN4" t="s">
+      <c r="HR4" t="s">
         <v>291</v>
       </c>
-      <c r="HO4" t="s">
+      <c r="HS4" t="s">
         <v>292</v>
       </c>
-      <c r="HP4" t="s">
+      <c r="HT4" t="s">
         <v>293</v>
       </c>
-      <c r="HQ4" t="s">
+      <c r="HU4" t="s">
         <v>294</v>
       </c>
-      <c r="HR4" t="s">
+      <c r="HV4" t="s">
         <v>295</v>
       </c>
-      <c r="HS4" t="s">
+      <c r="HW4" t="s">
         <v>296</v>
       </c>
-      <c r="HT4" t="s">
+      <c r="HX4" t="s">
         <v>297</v>
       </c>
-      <c r="HU4" t="s">
+      <c r="HY4" t="s">
         <v>298</v>
       </c>
-      <c r="HV4" t="s">
+      <c r="HZ4" t="s">
         <v>299</v>
       </c>
-      <c r="HW4" t="s">
+      <c r="IA4" t="s">
         <v>300</v>
       </c>
-      <c r="HX4" t="s">
+      <c r="IB4" t="s">
         <v>301</v>
       </c>
-      <c r="HY4" t="s">
+      <c r="IC4" t="s">
         <v>302</v>
       </c>
-      <c r="HZ4" t="s">
+      <c r="ID4" t="s">
         <v>303</v>
       </c>
-      <c r="IA4" t="s">
+      <c r="IE4" t="s">
         <v>304</v>
       </c>
-      <c r="IB4" t="s">
+      <c r="IF4" t="s">
         <v>305</v>
       </c>
-      <c r="IC4" t="s">
+      <c r="IG4" t="s">
         <v>306</v>
       </c>
-      <c r="ID4" t="s">
+      <c r="IH4" t="s">
         <v>307</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>308</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>309</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>310</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T5" t="s">
         <v>35</v>
@@ -5303,7 +5303,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -6022,7 +6022,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
         <v>39</v>
@@ -6738,7 +6738,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
         <v>44</v>
@@ -7457,13 +7457,13 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T9" t="s">
         <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="V9">
         <v>289218.8</v>
@@ -8143,10 +8143,10 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
       </c>
       <c r="G10">
         <v>0.39910309999999999</v>
@@ -8182,10 +8182,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>149194.29999999999</v>
@@ -8865,10 +8865,10 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
       </c>
       <c r="G11">
         <v>0.52466369999999996</v>
@@ -8904,13 +8904,13 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
+        <v>305</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
         <v>309</v>
-      </c>
-      <c r="T11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" t="s">
-        <v>51</v>
       </c>
       <c r="V11">
         <v>288556.59999999998</v>
@@ -9587,7 +9587,7 @@
         <v>89.024199999999993</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -9617,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V12">
         <v>108756.6</v>
@@ -10297,7 +10297,7 @@
         <v>94.987200000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -10309,13 +10309,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -10333,10 +10333,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V13">
         <v>470330.7</v>
@@ -11013,7 +11013,7 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -11025,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
         <v>61</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -11049,10 +11049,10 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V14">
         <v>811237.8</v>
@@ -11729,7 +11729,7 @@
         <v>96.967500000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -11741,13 +11741,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
         <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -11765,13 +11765,13 @@
         <v>1000</v>
       </c>
       <c r="S15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="V15">
         <v>1553112</v>
@@ -12487,10 +12487,10 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="V16">
         <v>37773.879999999997</v>
@@ -13206,10 +13206,10 @@
         <v>-1</v>
       </c>
       <c r="S17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V17">
         <v>17555.810000000001</v>
@@ -13886,7 +13886,7 @@
         <v>98.951400000000007</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -13898,13 +13898,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -13922,10 +13922,10 @@
         <v>-1</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V18">
         <v>32472.5</v>
@@ -14641,10 +14641,10 @@
         <v>-1</v>
       </c>
       <c r="S19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V19">
         <v>44646.37</v>
@@ -15321,7 +15321,7 @@
         <v>99.008099999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -15333,13 +15333,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -15357,10 +15357,10 @@
         <v>-1</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V20">
         <v>29284.44</v>
@@ -16076,10 +16076,10 @@
         <v>-1</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V21">
         <v>105994.9</v>
@@ -16759,7 +16759,7 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22">
         <v>0.73094170000000003</v>
@@ -16795,10 +16795,10 @@
         <v>-1</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V22">
         <v>45035.78</v>
@@ -17478,10 +17478,10 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23">
         <v>0.43049330000000002</v>
@@ -17517,13 +17517,13 @@
         <v>-1</v>
       </c>
       <c r="S23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="V23">
         <v>340617.8</v>
@@ -18239,10 +18239,10 @@
         <v>-1</v>
       </c>
       <c r="S24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V24">
         <v>14987.76</v>
